--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793C172-D858-4B74-8C3E-0F351B790589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C720F-DAB7-456D-B493-2D2C6D7F8B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="7" r:id="rId4"/>
-    <sheet name="queries" sheetId="8" r:id="rId5"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
-    <sheet name="model" sheetId="4" r:id="rId7"/>
+    <sheet name="survey" sheetId="9" r:id="rId2"/>
+    <sheet name="inc" sheetId="2" r:id="rId3"/>
+    <sheet name="edit" sheetId="10" r:id="rId4"/>
+    <sheet name="choices" sheetId="3" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId6"/>
+    <sheet name="queries" sheetId="8" r:id="rId7"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId8"/>
+    <sheet name="model" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="373">
   <si>
     <t>setting_name</t>
   </si>
@@ -693,12 +695,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>The temperature must have 1 decimal</t>
-  </si>
-  <si>
-    <t>A temperatura deve ter 1 decimal</t>
-  </si>
-  <si>
     <t>display.hint.text</t>
   </si>
   <si>
@@ -732,15 +728,6 @@
     <t>Deve estar entre 50 e 342 e um número par:</t>
   </si>
   <si>
-    <t>The date cannot be in the future</t>
-  </si>
-  <si>
-    <t>A data não pode estar no futuro</t>
-  </si>
-  <si>
-    <t>Deve ser menor que 13</t>
-  </si>
-  <si>
     <t>data('DATINC')</t>
   </si>
   <si>
@@ -759,9 +746,6 @@
     <t>ID (BHP)</t>
   </si>
   <si>
-    <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('ID') == null</t>
-  </si>
-  <si>
     <t>data('VACTRANS') == '2'</t>
   </si>
   <si>
@@ -819,30 +803,12 @@
     <t>Second randomization number</t>
   </si>
   <si>
-    <t>Please transcribe the vaccination information to the triage form</t>
-  </si>
-  <si>
     <t>&lt;font color = "red"&gt;End the enrolment as consent has not been obtained&lt;/font &gt;</t>
   </si>
   <si>
     <t>&lt;font color = "red"&gt; Finalize a inclusão porque o consentimento não foi dado &lt;/font&gt;</t>
   </si>
   <si>
-    <t>The ID must be 7 digits</t>
-  </si>
-  <si>
-    <t>O ID deve ter 7 números</t>
-  </si>
-  <si>
-    <t>The child must be younger than 6 years old</t>
-  </si>
-  <si>
-    <t>A criança deve ter menos de 6 anos de idade</t>
-  </si>
-  <si>
-    <t>Must be less than 13</t>
-  </si>
-  <si>
     <t>Must be 1-12</t>
   </si>
   <si>
@@ -936,9 +902,6 @@
     <t>data('INC') == '1'</t>
   </si>
   <si>
-    <t>Por favor transcreva as informações da vacinação no fisha de triagem</t>
-  </si>
-  <si>
     <t>Outro tratamento</t>
   </si>
   <si>
@@ -975,15 +938,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('DATINC'), data('DOB'))&lt;1 || adate.hasUncertainty(data('DOB')) || data('CONSENT') == '2'</t>
-  </si>
-  <si>
-    <t>data('IDADEANO')&lt;6 || data('DOB')!="D:NS,M:NS,Y:NS" || data('CONSENT') == '2'</t>
-  </si>
-  <si>
-    <t>data('IDADEMES')&lt;13 || data('DOB')!="D:NS,M:NS,Y:NS" || data('CONSENT') == '2'</t>
-  </si>
-  <si>
     <t>freebase.decimalPlaces(data('TEMPERATURA'))==1 || data('CONSENT') == '2'</t>
   </si>
   <si>
@@ -1030,6 +984,186 @@
   </si>
   <si>
     <t>MADtrial - Inclusão</t>
+  </si>
+  <si>
+    <t>TELEMOVEL1</t>
+  </si>
+  <si>
+    <t>telinf</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>TELEINF1</t>
+  </si>
+  <si>
+    <t>TELEMOVEL2</t>
+  </si>
+  <si>
+    <t>TELEINF2</t>
+  </si>
+  <si>
+    <t>TELEMOVEL3</t>
+  </si>
+  <si>
+    <t>TELEINF3</t>
+  </si>
+  <si>
+    <t>Phone number 1</t>
+  </si>
+  <si>
+    <t>Phone number 2</t>
+  </si>
+  <si>
+    <t>Phone number 3</t>
+  </si>
+  <si>
+    <t>CNO</t>
+  </si>
+  <si>
+    <t>data('oubairro') == null</t>
+  </si>
+  <si>
+    <t>nsID</t>
+  </si>
+  <si>
+    <t>Didn't suceed to identify ID</t>
+  </si>
+  <si>
+    <t>Não conseguir identifcar o ID</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>ID da equipa movel</t>
+  </si>
+  <si>
+    <t>Equipa movel ID</t>
+  </si>
+  <si>
+    <t>idns</t>
+  </si>
+  <si>
+    <t>data('idns') != null</t>
+  </si>
+  <si>
+    <t>cnons</t>
+  </si>
+  <si>
+    <t>data('cnons') != null</t>
+  </si>
+  <si>
+    <t>Numero de telemovel 1</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Por favor transcreva as informações da vacinação no fisha de triagem  &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Please transcribe the vaccination information to the triage form &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>CAMOONDE</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>(data('CNO')&gt;999  &amp;&amp; data('CNO')&lt;10000) || data('oubairro') != null</t>
+  </si>
+  <si>
+    <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('oubairro') != null</t>
+  </si>
+  <si>
+    <t>data('IDADEMES')&lt;13 || data('DOB')!="D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>data('IDADEANO')&lt;6 || data('DOB')!="D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('DATINC'), data('DOB'))&lt;1 || adate.hasUncertainty(data('DOB'))</t>
+  </si>
+  <si>
+    <t>data('TELEMOVEL1') &gt; 99999999 &amp;&amp; data('TELEMOVEL1') &lt; 1000000000 || data('CONSENT') == '2'</t>
+  </si>
+  <si>
+    <t>data('TELEMOVEL3') &gt; 99999999 &amp;&amp; data('TELEMOVEL3') &lt; 1000000000 || data('CONSENT') == '2'</t>
+  </si>
+  <si>
+    <t>data('TELEMOVEL2') &gt; 99999999 &amp;&amp; data('TELEMOVEL2') &lt; 1000000000 || data('CONSENT') == '2'</t>
+  </si>
+  <si>
+    <t>Numero de telemovel 2</t>
+  </si>
+  <si>
+    <t>Numero de telemovel 3</t>
+  </si>
+  <si>
+    <t>data('REGIDC') &gt; 99999999 &amp;&amp; data('REGIDC') &lt; 1000000000 || data('oubairro') == null</t>
+  </si>
+  <si>
+    <t>Deve ter 9 números:</t>
+  </si>
+  <si>
+    <t>Must be 4 digits long:</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future:</t>
+  </si>
+  <si>
+    <t>A data não pode estar no futuro:</t>
+  </si>
+  <si>
+    <t>Must be 7 digits long:</t>
+  </si>
+  <si>
+    <t>Deve ter 7 números:</t>
+  </si>
+  <si>
+    <t>Deve ter 4 números:</t>
+  </si>
+  <si>
+    <t>Must be less than 13:</t>
+  </si>
+  <si>
+    <t>Deve ser menor que 13:</t>
+  </si>
+  <si>
+    <t>A criança deve ter menos de 6 anos de idade:</t>
+  </si>
+  <si>
+    <t>The child must be younger than 6 years old:</t>
+  </si>
+  <si>
+    <t>Must be 9 digits long:</t>
+  </si>
+  <si>
+    <t>Must have 1 decimal:</t>
+  </si>
+  <si>
+    <t>Deve ter 1 decimal:</t>
+  </si>
+  <si>
+    <t>do section edit</t>
+  </si>
+  <si>
+    <t>do section inc</t>
+  </si>
+  <si>
+    <t>data('DATINC') != null</t>
   </si>
 </sst>
 </file>
@@ -1437,9 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,12 +1678,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C25D9-A5CA-4B9E-8C37-7E543018B8F4}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,13 +1832,13 @@
         <v>215</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1631,10 +1851,10 @@
         <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1663,1396 +1883,1441 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>40</v>
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M9" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" t="s">
-        <v>184</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="G12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" t="s">
-        <v>190</v>
+      <c r="I12">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" t="s">
+        <v>355</v>
+      </c>
+      <c r="L14" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>116</v>
+      <c r="B15" t="s">
+        <v>205</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15">
-        <v>99</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" t="s">
+        <v>345</v>
+      </c>
+      <c r="L23" t="s">
+        <v>357</v>
+      </c>
+      <c r="M23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="F24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22">
+      <c r="E26" s="4"/>
+      <c r="F26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I26">
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" t="s">
-        <v>310</v>
+        <v>231</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I36">
+        <v>9999999</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L39" t="s">
-        <v>263</v>
-      </c>
-      <c r="M39" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" t="s">
-        <v>212</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L40" t="s">
-        <v>265</v>
-      </c>
-      <c r="M40" t="s">
-        <v>231</v>
+      <c r="B40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>61</v>
       </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G46" t="s">
-        <v>250</v>
-      </c>
-      <c r="H46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" t="s">
-        <v>159</v>
+      <c r="C47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="H49" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>53</v>
       </c>
       <c r="E53" t="s">
         <v>58</v>
       </c>
-      <c r="F53" t="s">
-        <v>67</v>
+      <c r="F53" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s">
-        <v>217</v>
-      </c>
-      <c r="N57" t="s">
-        <v>221</v>
-      </c>
-      <c r="O57" t="s">
-        <v>220</v>
-      </c>
-      <c r="P57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-      <c r="K58" t="s">
-        <v>316</v>
-      </c>
-      <c r="L58" t="s">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="F59" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" t="s">
+        <v>323</v>
+      </c>
+      <c r="H59" t="s">
+        <v>353</v>
+      </c>
+      <c r="K59" t="s">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s">
+        <v>367</v>
+      </c>
+      <c r="M59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" t="s">
+        <v>354</v>
+      </c>
+      <c r="K61" t="s">
+        <v>351</v>
+      </c>
+      <c r="L61" t="s">
+        <v>367</v>
+      </c>
+      <c r="M61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>53</v>
       </c>
-      <c r="E61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63" t="s">
-        <v>314</v>
-      </c>
-      <c r="L63" t="s">
-        <v>229</v>
-      </c>
-      <c r="M63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" t="s">
+        <v>244</v>
+      </c>
+      <c r="H67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>137</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>53</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K78" t="s">
+        <v>297</v>
+      </c>
+      <c r="L78" t="s">
+        <v>368</v>
+      </c>
+      <c r="M78" t="s">
+        <v>369</v>
+      </c>
+      <c r="N78" t="s">
+        <v>219</v>
+      </c>
+      <c r="O78" t="s">
+        <v>218</v>
+      </c>
+      <c r="P78" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="K79" t="s">
+        <v>300</v>
+      </c>
+      <c r="L79" t="s">
+        <v>225</v>
+      </c>
+      <c r="M79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>53</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G82" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="H82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G84" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>169</v>
-      </c>
-      <c r="E85" t="s">
-        <v>279</v>
-      </c>
-      <c r="F85" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s">
+        <v>298</v>
+      </c>
+      <c r="L84" t="s">
+        <v>358</v>
+      </c>
+      <c r="M84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" t="s">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" t="s">
+        <v>82</v>
+      </c>
+      <c r="G93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" t="s">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s">
+        <v>143</v>
+      </c>
+      <c r="H95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s">
+        <v>145</v>
+      </c>
+      <c r="H98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>49</v>
       </c>
-      <c r="F87" t="s">
-        <v>281</v>
-      </c>
-      <c r="G87" t="s">
-        <v>300</v>
-      </c>
-      <c r="H87" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s">
-        <v>148</v>
-      </c>
-      <c r="H92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>49</v>
-      </c>
-      <c r="F94" t="s">
-        <v>93</v>
-      </c>
-      <c r="G94" t="s">
-        <v>147</v>
-      </c>
-      <c r="H94" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
-      </c>
-      <c r="G98" t="s">
-        <v>147</v>
-      </c>
-      <c r="H98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G99" t="s">
+        <v>146</v>
+      </c>
+      <c r="H99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>153</v>
+      </c>
+      <c r="H102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>61</v>
       </c>
-      <c r="C101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" t="s">
+        <v>287</v>
+      </c>
+      <c r="H107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" t="s">
-        <v>284</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H104" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" t="s">
+        <v>92</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
+      <c r="H112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>61</v>
       </c>
-      <c r="C105" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H106" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="C113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" t="s">
-        <v>285</v>
-      </c>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H109" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" t="s">
-        <v>287</v>
-      </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H112" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" t="s">
-        <v>289</v>
-      </c>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H115" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
-      </c>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>292</v>
+        <v>49</v>
+      </c>
+      <c r="F118" t="s">
+        <v>168</v>
+      </c>
+      <c r="G118" t="s">
+        <v>147</v>
       </c>
       <c r="H118" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>40</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H123" t="s">
-        <v>242</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L123" t="s">
-        <v>268</v>
-      </c>
-      <c r="M123" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H124" t="s">
-        <v>243</v>
-      </c>
-      <c r="K124" t="s">
-        <v>294</v>
-      </c>
-      <c r="L124" t="s">
-        <v>266</v>
-      </c>
-      <c r="M124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>116</v>
-      </c>
-      <c r="F125" t="s">
-        <v>284</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>108</v>
+      </c>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>116</v>
-      </c>
-      <c r="F128" t="s">
-        <v>94</v>
-      </c>
-      <c r="I128" t="s">
-        <v>232</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" t="s">
+        <v>273</v>
+      </c>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" t="s">
-        <v>94</v>
-      </c>
-      <c r="G129" t="s">
-        <v>162</v>
+        <v>34</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>305</v>
-      </c>
-      <c r="F130" t="s">
-        <v>306</v>
-      </c>
-      <c r="G130" t="s">
-        <v>283</v>
-      </c>
-      <c r="H130" t="s">
-        <v>163</v>
-      </c>
+      <c r="B130" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>116</v>
-      </c>
-      <c r="F131" t="s">
-        <v>95</v>
-      </c>
-      <c r="I131" t="s">
-        <v>307</v>
-      </c>
+      <c r="B131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" t="s">
+        <v>275</v>
+      </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" t="s">
-        <v>165</v>
+        <v>34</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="H132" t="s">
-        <v>164</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L132" t="s">
-        <v>268</v>
-      </c>
-      <c r="M132" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>40</v>
-      </c>
-      <c r="F133" t="s">
-        <v>224</v>
-      </c>
-      <c r="G133" t="s">
-        <v>122</v>
-      </c>
-      <c r="H133" t="s">
-        <v>124</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L133" t="s">
-        <v>268</v>
-      </c>
-      <c r="M133" t="s">
-        <v>269</v>
-      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="2"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>116</v>
-      </c>
-      <c r="F134" t="s">
-        <v>41</v>
-      </c>
-      <c r="I134" t="s">
-        <v>225</v>
-      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" t="s">
+        <v>277</v>
+      </c>
+      <c r="G134" s="2"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>61</v>
-      </c>
-      <c r="C135" t="s">
-        <v>226</v>
+      <c r="D135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H135" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" t="s">
-        <v>223</v>
-      </c>
+      <c r="B136" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C137" t="s">
+        <v>279</v>
+      </c>
+      <c r="G137" s="2"/>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>13</v>
+      <c r="D138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H138" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -3062,104 +3327,327 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D141" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E141" t="s">
-        <v>244</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141" t="s">
-        <v>98</v>
+      <c r="B141" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" t="s">
-        <v>296</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="F142" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D143" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E143" t="s">
-        <v>246</v>
+      <c r="D143" t="s">
+        <v>40</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G143" t="s">
-        <v>167</v>
+        <v>104</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="H143" t="s">
-        <v>100</v>
+        <v>236</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L143" t="s">
+        <v>256</v>
+      </c>
+      <c r="M143" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>64</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H144" t="s">
+        <v>237</v>
+      </c>
+      <c r="K144" t="s">
+        <v>282</v>
+      </c>
+      <c r="L144" t="s">
+        <v>254</v>
+      </c>
+      <c r="M144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>116</v>
+      </c>
+      <c r="F145" t="s">
+        <v>272</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
+        <v>116</v>
+      </c>
+      <c r="F148" t="s">
+        <v>94</v>
+      </c>
+      <c r="I148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" t="s">
+        <v>94</v>
+      </c>
+      <c r="G149" t="s">
+        <v>162</v>
+      </c>
+      <c r="H149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
+        <v>293</v>
+      </c>
+      <c r="G150" t="s">
+        <v>271</v>
+      </c>
+      <c r="H150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>116</v>
+      </c>
+      <c r="F151" t="s">
+        <v>95</v>
+      </c>
+      <c r="I151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" t="s">
+        <v>96</v>
+      </c>
+      <c r="G152" t="s">
+        <v>165</v>
+      </c>
+      <c r="H152" t="s">
+        <v>164</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L152" t="s">
+        <v>256</v>
+      </c>
+      <c r="M152" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
+        <v>222</v>
+      </c>
+      <c r="G153" t="s">
+        <v>122</v>
+      </c>
+      <c r="H153" t="s">
+        <v>124</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L153" t="s">
+        <v>256</v>
+      </c>
+      <c r="M153" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>116</v>
+      </c>
+      <c r="F154" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>34</v>
       </c>
-      <c r="G148" t="s">
-        <v>259</v>
-      </c>
-      <c r="H148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
+      <c r="G156" t="s">
+        <v>220</v>
+      </c>
+      <c r="H156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D161" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" t="s">
+        <v>238</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+      <c r="H161" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162" t="s">
+        <v>284</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D163" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E163" t="s">
+        <v>240</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G163" t="s">
+        <v>167</v>
+      </c>
+      <c r="H163" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>252</v>
+      </c>
+      <c r="H168" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
         <v>116</v>
       </c>
-      <c r="F149" t="s">
-        <v>284</v>
-      </c>
-      <c r="I149">
+      <c r="F169" t="s">
+        <v>272</v>
+      </c>
+      <c r="I169">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3169,13 +3657,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51903F-6DA4-47CD-A8E7-349E4DD7CE62}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" t="s">
+        <v>331</v>
+      </c>
+      <c r="K9" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" t="s">
+        <v>345</v>
+      </c>
+      <c r="L18" t="s">
+        <v>357</v>
+      </c>
+      <c r="M18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +4149,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,7 +4194,7 @@
         <v>196</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,113 +4224,161 @@
         <v>196</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B18" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B19" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B20" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>298</v>
-      </c>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -3528,10 +4424,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="D54" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
@@ -3625,6 +4521,7 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
@@ -3651,10 +4548,10 @@
       <c r="C92" s="9"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -3727,7 +4624,6 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
@@ -3747,8 +4643,8 @@
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="9"/>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
@@ -3800,9 +4696,6 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3811,7 +4704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3840,7 +4733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A251D7-9A59-4B98-940C-6B4EF34B6D86}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3932,7 +4825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3983,13 +4876,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4908,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4056,7 +4949,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>169</v>
@@ -4067,10 +4960,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -4078,7 +4971,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4088,11 +4981,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="A9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4100,21 +4993,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
+        <v>335</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -4122,7 +5015,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -4133,10 +5026,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -4144,7 +5037,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -4155,18 +5048,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -4177,10 +5070,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -4188,10 +5081,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -4199,10 +5092,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -4210,10 +5103,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4221,21 +5114,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4243,10 +5136,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -4254,10 +5147,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4265,10 +5158,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4276,21 +5169,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+        <v>333</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -4298,10 +5191,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4309,21 +5202,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -4331,10 +5224,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4342,7 +5235,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -4353,21 +5246,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -4375,21 +5268,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -4397,10 +5290,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4408,10 +5301,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -4419,21 +5312,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4441,7 +5334,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
@@ -4452,10 +5345,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -4463,10 +5356,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -4474,10 +5367,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>187</v>
+        <v>330</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -4485,10 +5378,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -4496,7 +5389,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
@@ -4507,7 +5400,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -4518,10 +5411,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -4529,88 +5422,179 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
+      <c r="A50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
+      <c r="A51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
+      <c r="A52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>80</v>
+      <c r="A53" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
+      <c r="A55" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
@@ -4762,8 +5746,20 @@
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
     </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C720F-DAB7-456D-B493-2D2C6D7F8B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066DF5C-2D6A-41F6-A0CC-AD2FFC27F701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="376">
   <si>
     <t>setting_name</t>
   </si>
@@ -1164,6 +1164,15 @@
   </si>
   <si>
     <t>data('DATINC') != null</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>Sex of the child</t>
+  </si>
+  <si>
+    <t>Sexo da criança</t>
   </si>
 </sst>
 </file>
@@ -1765,11 +1774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,73 +2187,84 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>326</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L33" t="s">
-        <v>360</v>
-      </c>
-      <c r="M33" t="s">
-        <v>361</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L34" t="s">
+        <v>360</v>
+      </c>
+      <c r="M34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>169</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>327</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>333</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>334</v>
       </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>116</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>103</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>9999999</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>64</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2254,117 +2274,100 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>130</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" t="s">
-        <v>349</v>
-      </c>
-      <c r="L42" t="s">
-        <v>358</v>
-      </c>
-      <c r="M42" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" t="s">
+        <v>349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>169</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>114</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>116</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I46" s="12" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" t="s">
-        <v>211</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L48" t="s">
-        <v>366</v>
-      </c>
-      <c r="M48" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -2372,228 +2375,234 @@
         <v>40</v>
       </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>366</v>
+      </c>
+      <c r="M49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
         <v>110</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>210</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H50" t="s">
         <v>212</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L50" t="s">
         <v>363</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M50" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>53</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>247</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>249</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H57" t="s">
-        <v>337</v>
-      </c>
-      <c r="K57" t="s">
-        <v>350</v>
-      </c>
-      <c r="L57" t="s">
-        <v>367</v>
-      </c>
-      <c r="M57" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E58" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H58" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" t="s">
+        <v>350</v>
+      </c>
+      <c r="L58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M58" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>40</v>
+        <v>289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>314</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G59" t="s">
-        <v>323</v>
-      </c>
-      <c r="H59" t="s">
-        <v>353</v>
-      </c>
-      <c r="K59" t="s">
-        <v>352</v>
-      </c>
-      <c r="L59" t="s">
-        <v>367</v>
-      </c>
-      <c r="M59" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="G60" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" t="s">
+        <v>353</v>
+      </c>
+      <c r="K60" t="s">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s">
+        <v>367</v>
+      </c>
+      <c r="M60" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>40</v>
+        <v>289</v>
+      </c>
+      <c r="E61" t="s">
+        <v>314</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
-      <c r="H61" t="s">
-        <v>354</v>
-      </c>
-      <c r="K61" t="s">
-        <v>351</v>
-      </c>
-      <c r="L61" t="s">
-        <v>367</v>
-      </c>
-      <c r="M61" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" t="s">
+        <v>324</v>
+      </c>
+      <c r="H62" t="s">
+        <v>354</v>
+      </c>
+      <c r="K62" t="s">
+        <v>351</v>
+      </c>
+      <c r="L62" t="s">
+        <v>367</v>
+      </c>
+      <c r="M62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>289</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>314</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>53</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>58</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>57</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>158</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G67" t="s">
-        <v>244</v>
-      </c>
-      <c r="H67" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -2603,38 +2612,50 @@
       <c r="E68" t="s">
         <v>58</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G68" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" t="s">
         <v>63</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>160</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H69" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>61</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>34</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>341</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -2644,187 +2665,175 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>61</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>53</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>58</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>67</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>131</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H75" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s">
-        <v>132</v>
-      </c>
-      <c r="H78" t="s">
-        <v>68</v>
-      </c>
-      <c r="K78" t="s">
-        <v>297</v>
-      </c>
-      <c r="L78" t="s">
-        <v>368</v>
-      </c>
-      <c r="M78" t="s">
-        <v>369</v>
-      </c>
-      <c r="N78" t="s">
-        <v>219</v>
-      </c>
-      <c r="O78" t="s">
-        <v>218</v>
-      </c>
-      <c r="P78" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+      <c r="K79" t="s">
+        <v>297</v>
+      </c>
+      <c r="L79" t="s">
+        <v>368</v>
+      </c>
+      <c r="M79" t="s">
+        <v>369</v>
+      </c>
+      <c r="N79" t="s">
+        <v>219</v>
+      </c>
+      <c r="O79" t="s">
+        <v>218</v>
+      </c>
+      <c r="P79" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>69</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>133</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>70</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K80" t="s">
         <v>300</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L80" t="s">
         <v>225</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M80" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>53</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>73</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>71</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>134</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>61</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>32</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>66</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>136</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H85" t="s">
         <v>74</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K85" t="s">
         <v>298</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L85" t="s">
         <v>358</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M85" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" t="s">
-        <v>152</v>
-      </c>
-      <c r="F88" t="s">
-        <v>75</v>
-      </c>
-      <c r="G88" t="s">
-        <v>137</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -2835,13 +2844,13 @@
         <v>152</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -2852,40 +2861,40 @@
         <v>152</v>
       </c>
       <c r="F90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" t="s">
         <v>80</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G91" t="s">
         <v>139</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" t="s">
-        <v>152</v>
-      </c>
-      <c r="F93" t="s">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s">
-        <v>142</v>
-      </c>
-      <c r="H93" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -2896,13 +2905,13 @@
         <v>152</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -2913,106 +2922,106 @@
         <v>152</v>
       </c>
       <c r="F95" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" t="s">
         <v>85</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>143</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" t="s">
-        <v>152</v>
-      </c>
-      <c r="F98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s">
-        <v>145</v>
-      </c>
-      <c r="H98" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>152</v>
+      </c>
+      <c r="F99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s">
+        <v>145</v>
+      </c>
+      <c r="H99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>49</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>88</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>146</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>53</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>152</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>89</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
         <v>153</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>61</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>169</v>
-      </c>
-      <c r="E104" t="s">
-        <v>258</v>
-      </c>
-      <c r="F104" t="s">
-        <v>91</v>
-      </c>
-      <c r="G104" t="s">
-        <v>155</v>
-      </c>
-      <c r="H104" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -3020,37 +3029,49 @@
         <v>169</v>
       </c>
       <c r="E105" t="s">
+        <v>258</v>
+      </c>
+      <c r="F105" t="s">
+        <v>91</v>
+      </c>
+      <c r="G105" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" t="s">
         <v>267</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>61</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>49</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>269</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>287</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H108" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -3060,307 +3081,289 @@
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>53</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>58</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>92</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>148</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>61</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>49</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>93</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>147</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>53</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>58</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>107</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>149</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H117" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>61</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>49</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>168</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>147</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H119" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>116</v>
-      </c>
-      <c r="F123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I123">
-        <v>2</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
+        <v>116</v>
+      </c>
+      <c r="F124" t="s">
+        <v>272</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
         <v>34</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H125" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>61</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>108</v>
       </c>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>34</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H127" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>61</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>273</v>
       </c>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>34</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H130" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>64</v>
-      </c>
-      <c r="G130" s="2"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>61</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>275</v>
       </c>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
         <v>34</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H133" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>64</v>
-      </c>
-      <c r="G133" s="2"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>61</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>277</v>
       </c>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
         <v>34</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H136" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>64</v>
-      </c>
-      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>61</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>279</v>
       </c>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>34</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H139" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>40</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H143" t="s">
-        <v>236</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L143" t="s">
-        <v>256</v>
-      </c>
-      <c r="M143" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -3368,116 +3371,116 @@
         <v>40</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H144" t="s">
-        <v>237</v>
-      </c>
-      <c r="K144" t="s">
-        <v>282</v>
+        <v>236</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M144" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H145" t="s">
+        <v>237</v>
+      </c>
+      <c r="K145" t="s">
+        <v>282</v>
+      </c>
+      <c r="L145" t="s">
+        <v>254</v>
+      </c>
+      <c r="M145" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>116</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>272</v>
       </c>
-      <c r="I145">
+      <c r="I146">
         <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>116</v>
-      </c>
-      <c r="F148" t="s">
-        <v>94</v>
-      </c>
-      <c r="I148" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F149" t="s">
         <v>94</v>
       </c>
-      <c r="G149" t="s">
-        <v>162</v>
-      </c>
-      <c r="H149" t="s">
-        <v>161</v>
+      <c r="I149" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="G150" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="H150" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>95</v>
-      </c>
-      <c r="I151" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="G151" t="s">
+        <v>271</v>
+      </c>
+      <c r="H151" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F152" t="s">
-        <v>96</v>
-      </c>
-      <c r="G152" t="s">
-        <v>165</v>
-      </c>
-      <c r="H152" t="s">
-        <v>164</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L152" t="s">
-        <v>256</v>
-      </c>
-      <c r="M152" t="s">
-        <v>257</v>
+        <v>95</v>
+      </c>
+      <c r="I152" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -3485,16 +3488,16 @@
         <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="G153" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="H153" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="L153" t="s">
         <v>256</v>
@@ -3505,149 +3508,172 @@
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" t="s">
+        <v>222</v>
+      </c>
+      <c r="G154" t="s">
+        <v>122</v>
+      </c>
+      <c r="H154" t="s">
+        <v>124</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L154" t="s">
+        <v>256</v>
+      </c>
+      <c r="M154" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
         <v>116</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F155" t="s">
         <v>41</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I155" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>61</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
         <v>34</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>220</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H157" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D161" s="2" t="s">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D162" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E162" t="s">
         <v>238</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G162" t="s">
         <v>166</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H162" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>61</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>284</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D164" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E164" t="s">
         <v>240</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G164" t="s">
         <v>167</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H164" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>64</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="F164" s="2"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>13</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>252</v>
-      </c>
-      <c r="H168" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>252</v>
+      </c>
+      <c r="H169" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>116</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>272</v>
       </c>
-      <c r="I169">
+      <c r="I170">
         <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3661,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51903F-6DA4-47CD-A8E7-349E4DD7CE62}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -4022,7 +4048,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4878,11 +4904,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5420,31 +5446,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>289</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>289</v>
@@ -5453,9 +5479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>289</v>
@@ -5464,20 +5490,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
+        <v>321</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
@@ -5486,9 +5512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
@@ -5497,31 +5523,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -5529,54 +5556,56 @@
       <c r="C58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
         <v>169</v>
       </c>
       <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>269</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>49</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
@@ -5585,9 +5614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>53</v>
@@ -5596,52 +5625,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -5746,20 +5783,23 @@
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F159" s="2"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F162" s="2"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F226" s="2"/>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="2"/>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" s="2"/>
     </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066DF5C-2D6A-41F6-A0CC-AD2FFC27F701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68169B-E11C-4504-A90B-41D56711F931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="378">
   <si>
     <t>setting_name</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t>Sexo da criança</t>
+  </si>
+  <si>
+    <t>regidcns</t>
+  </si>
+  <si>
+    <t>data('regidcns') !=null</t>
   </si>
 </sst>
 </file>
@@ -1774,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,419 +2007,397 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>207</v>
-      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
+        <v>330</v>
+      </c>
+      <c r="I17">
+        <v>999999999</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>228</v>
+      <c r="B18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
       <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>9999</v>
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>40</v>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" t="s">
-        <v>345</v>
-      </c>
-      <c r="L23" t="s">
-        <v>357</v>
-      </c>
-      <c r="M23" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" t="s">
+        <v>325</v>
+      </c>
+      <c r="K27" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" t="s">
+        <v>357</v>
+      </c>
+      <c r="M27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F28" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" t="s">
-        <v>325</v>
-      </c>
-      <c r="I26">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>12</v>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30">
+        <v>9999</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" t="s">
-        <v>120</v>
-      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>373</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H32" t="s">
-        <v>375</v>
-      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>326</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F38" t="s">
         <v>103</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>232</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L38" t="s">
         <v>360</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M38" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>169</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E39" t="s">
         <v>327</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F39" t="s">
         <v>333</v>
       </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>334</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>116</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F41" t="s">
         <v>103</v>
       </c>
-      <c r="I37">
+      <c r="I41">
         <v>9999999</v>
       </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" t="s">
-        <v>349</v>
-      </c>
-      <c r="L43" t="s">
-        <v>358</v>
-      </c>
-      <c r="M43" t="s">
-        <v>359</v>
-      </c>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" t="s">
-        <v>211</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L49" t="s">
-        <v>366</v>
-      </c>
-      <c r="M49" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
-      </c>
-      <c r="G50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L50" t="s">
-        <v>363</v>
-      </c>
-      <c r="M50" t="s">
-        <v>364</v>
+        <v>52</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -2423,43 +2407,66 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>12</v>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>246</v>
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>248</v>
+        <v>212</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M54" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -2469,70 +2476,38 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>322</v>
+        <v>246</v>
+      </c>
+      <c r="G58" t="s">
+        <v>247</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
-      </c>
-      <c r="K58" t="s">
-        <v>350</v>
-      </c>
-      <c r="L58" t="s">
-        <v>367</v>
-      </c>
-      <c r="M58" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>289</v>
-      </c>
-      <c r="E59" t="s">
-        <v>314</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G60" t="s">
-        <v>323</v>
-      </c>
-      <c r="H60" t="s">
-        <v>353</v>
-      </c>
-      <c r="K60" t="s">
-        <v>352</v>
-      </c>
-      <c r="L60" t="s">
-        <v>367</v>
-      </c>
-      <c r="M60" t="s">
-        <v>356</v>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>289</v>
-      </c>
-      <c r="E61" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>319</v>
+      <c r="B61" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -2540,16 +2515,16 @@
         <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G62" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H62" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="K62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L62" t="s">
         <v>367</v>
@@ -2566,338 +2541,362 @@
         <v>314</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" t="s">
+        <v>353</v>
+      </c>
+      <c r="K64" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64" t="s">
+        <v>367</v>
+      </c>
+      <c r="M64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" t="s">
+        <v>354</v>
+      </c>
+      <c r="K66" t="s">
+        <v>351</v>
+      </c>
+      <c r="L66" t="s">
+        <v>367</v>
+      </c>
+      <c r="M66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>53</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E70" t="s">
         <v>58</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F70" t="s">
         <v>57</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G70" t="s">
         <v>158</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>53</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E72" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G72" t="s">
         <v>244</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H72" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>53</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E73" t="s">
         <v>58</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F73" t="s">
         <v>63</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G73" t="s">
         <v>160</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H73" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>341</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E79" t="s">
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
-      </c>
-      <c r="K79" t="s">
-        <v>297</v>
-      </c>
-      <c r="L79" t="s">
-        <v>368</v>
-      </c>
-      <c r="M79" t="s">
-        <v>369</v>
-      </c>
-      <c r="N79" t="s">
-        <v>219</v>
-      </c>
-      <c r="O79" t="s">
-        <v>218</v>
-      </c>
-      <c r="P79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s">
-        <v>69</v>
-      </c>
-      <c r="G80" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" t="s">
-        <v>70</v>
-      </c>
-      <c r="K80" t="s">
-        <v>300</v>
-      </c>
-      <c r="L80" t="s">
-        <v>225</v>
-      </c>
-      <c r="M80" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83" t="s">
+        <v>297</v>
+      </c>
+      <c r="L83" t="s">
+        <v>368</v>
+      </c>
+      <c r="M83" t="s">
+        <v>369</v>
+      </c>
+      <c r="N83" t="s">
+        <v>219</v>
+      </c>
+      <c r="O83" t="s">
+        <v>218</v>
+      </c>
+      <c r="P83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" t="s">
+        <v>70</v>
+      </c>
+      <c r="K84" t="s">
+        <v>300</v>
+      </c>
+      <c r="L84" t="s">
+        <v>225</v>
+      </c>
+      <c r="M84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>53</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E87" t="s">
         <v>73</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F87" t="s">
         <v>71</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G87" t="s">
         <v>134</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H87" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>61</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C88" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>32</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F89" t="s">
         <v>66</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G89" t="s">
         <v>136</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H89" t="s">
         <v>74</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K89" t="s">
         <v>298</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L89" t="s">
         <v>358</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M89" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>53</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E93" t="s">
         <v>152</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F93" t="s">
         <v>75</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G93" t="s">
         <v>137</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" t="s">
-        <v>152</v>
-      </c>
-      <c r="F90" t="s">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" t="s">
-        <v>152</v>
-      </c>
-      <c r="F91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>53</v>
       </c>
@@ -2905,16 +2904,16 @@
         <v>152</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
-      </c>
-      <c r="H94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>53</v>
       </c>
@@ -2922,40 +2921,40 @@
         <v>152</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
-      </c>
-      <c r="H95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" t="s">
-        <v>152</v>
-      </c>
-      <c r="F96" t="s">
-        <v>85</v>
-      </c>
-      <c r="G96" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>12</v>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" t="s">
+        <v>82</v>
+      </c>
+      <c r="G98" t="s">
+        <v>142</v>
+      </c>
+      <c r="H98" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -2966,27 +2965,30 @@
         <v>152</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -3007,135 +3009,132 @@
         <v>152</v>
       </c>
       <c r="F103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F107" t="s">
         <v>89</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G107" t="s">
         <v>153</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>61</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
         <v>169</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E109" t="s">
         <v>258</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F109" t="s">
         <v>91</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G109" t="s">
         <v>155</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>169</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E110" t="s">
         <v>267</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F110" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" t="s">
-        <v>287</v>
-      </c>
-      <c r="H108" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>12</v>
+      <c r="D112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" t="s">
+        <v>269</v>
+      </c>
+      <c r="G112" t="s">
+        <v>287</v>
+      </c>
+      <c r="H112" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>53</v>
-      </c>
-      <c r="E113" t="s">
-        <v>58</v>
-      </c>
-      <c r="F113" t="s">
-        <v>92</v>
-      </c>
-      <c r="G113" t="s">
-        <v>148</v>
-      </c>
-      <c r="H113" t="s">
-        <v>150</v>
+      <c r="B113" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>49</v>
-      </c>
-      <c r="F115" t="s">
-        <v>93</v>
-      </c>
-      <c r="G115" t="s">
-        <v>147</v>
-      </c>
-      <c r="H115" t="s">
-        <v>151</v>
+      <c r="B115" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -3146,13 +3145,13 @@
         <v>58</v>
       </c>
       <c r="F117" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H117" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -3160,7 +3159,7 @@
         <v>61</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -3168,7 +3167,7 @@
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="G119" t="s">
         <v>147</v>
@@ -3183,8 +3182,20 @@
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>13</v>
+      <c r="D121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" t="s">
+        <v>107</v>
+      </c>
+      <c r="G121" t="s">
+        <v>149</v>
+      </c>
+      <c r="H121" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -3192,34 +3203,31 @@
         <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>12</v>
+      <c r="D123" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" t="s">
+        <v>168</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>116</v>
-      </c>
-      <c r="F124" t="s">
-        <v>272</v>
-      </c>
-      <c r="I124">
-        <v>2</v>
+      <c r="B124" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H125" t="s">
-        <v>304</v>
+      <c r="B125" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3227,453 +3235,488 @@
         <v>61</v>
       </c>
       <c r="C126" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="F128" t="s">
+        <v>272</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" t="s">
         <v>108</v>
       </c>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>34</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H131" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>64</v>
       </c>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>61</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C133" t="s">
         <v>273</v>
       </c>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>34</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H134" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>64</v>
       </c>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>61</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C136" t="s">
         <v>275</v>
       </c>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
         <v>34</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H137" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>64</v>
       </c>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>61</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C139" t="s">
         <v>277</v>
       </c>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
         <v>34</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H140" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>64</v>
       </c>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>61</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C142" t="s">
         <v>279</v>
       </c>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
         <v>34</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H143" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>40</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H144" t="s">
-        <v>236</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L144" t="s">
-        <v>256</v>
-      </c>
-      <c r="M144" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H145" t="s">
-        <v>237</v>
-      </c>
-      <c r="K145" t="s">
-        <v>282</v>
-      </c>
-      <c r="L145" t="s">
-        <v>254</v>
-      </c>
-      <c r="M145" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>116</v>
-      </c>
-      <c r="F146" t="s">
-        <v>272</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>12</v>
+      <c r="D148" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H148" t="s">
+        <v>236</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L148" t="s">
+        <v>256</v>
+      </c>
+      <c r="M148" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>116</v>
-      </c>
-      <c r="F149" t="s">
-        <v>94</v>
-      </c>
-      <c r="I149" t="s">
-        <v>227</v>
+        <v>40</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H149" t="s">
+        <v>237</v>
+      </c>
+      <c r="K149" t="s">
+        <v>282</v>
+      </c>
+      <c r="L149" t="s">
+        <v>254</v>
+      </c>
+      <c r="M149" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F150" t="s">
-        <v>94</v>
-      </c>
-      <c r="G150" t="s">
-        <v>162</v>
-      </c>
-      <c r="H150" t="s">
-        <v>161</v>
+        <v>272</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>292</v>
-      </c>
-      <c r="F151" t="s">
-        <v>293</v>
-      </c>
-      <c r="G151" t="s">
-        <v>271</v>
-      </c>
-      <c r="H151" t="s">
-        <v>163</v>
+      <c r="B151" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>116</v>
-      </c>
-      <c r="F152" t="s">
-        <v>95</v>
-      </c>
-      <c r="I152" t="s">
-        <v>294</v>
+      <c r="B152" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F153" t="s">
-        <v>96</v>
-      </c>
-      <c r="G153" t="s">
-        <v>165</v>
-      </c>
-      <c r="H153" t="s">
-        <v>164</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L153" t="s">
-        <v>256</v>
-      </c>
-      <c r="M153" t="s">
-        <v>257</v>
+        <v>94</v>
+      </c>
+      <c r="I153" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="G154" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="H154" t="s">
-        <v>124</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L154" t="s">
-        <v>256</v>
-      </c>
-      <c r="M154" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" t="s">
+        <v>293</v>
+      </c>
+      <c r="G155" t="s">
+        <v>271</v>
+      </c>
+      <c r="H155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>116</v>
       </c>
-      <c r="F155" t="s">
-        <v>41</v>
-      </c>
-      <c r="I155" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>61</v>
-      </c>
-      <c r="C156" t="s">
-        <v>224</v>
+      <c r="F156" t="s">
+        <v>95</v>
+      </c>
+      <c r="I156" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="F157" t="s">
+        <v>96</v>
       </c>
       <c r="G157" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H157" t="s">
-        <v>221</v>
+        <v>164</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L157" t="s">
+        <v>256</v>
+      </c>
+      <c r="M157" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>64</v>
+      <c r="D158" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" t="s">
+        <v>222</v>
+      </c>
+      <c r="G158" t="s">
+        <v>122</v>
+      </c>
+      <c r="H158" t="s">
+        <v>124</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L158" t="s">
+        <v>256</v>
+      </c>
+      <c r="M158" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>13</v>
+      <c r="D159" t="s">
+        <v>116</v>
+      </c>
+      <c r="F159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" t="s">
+        <v>220</v>
+      </c>
+      <c r="H161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D162" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E162" t="s">
-        <v>238</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G162" t="s">
-        <v>166</v>
-      </c>
-      <c r="H162" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" t="s">
-        <v>284</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="F163" s="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D164" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E164" t="s">
-        <v>240</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G164" t="s">
-        <v>167</v>
-      </c>
-      <c r="H164" t="s">
-        <v>100</v>
+      <c r="B164" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>64</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="F165" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>13</v>
+      <c r="D166" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E166" t="s">
+        <v>238</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G166" t="s">
+        <v>166</v>
+      </c>
+      <c r="H166" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>205</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C167" t="s">
+        <v>284</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="F167" s="2"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>12</v>
+      <c r="D168" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E168" t="s">
+        <v>240</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G168" t="s">
+        <v>167</v>
+      </c>
+      <c r="H168" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
-        <v>34</v>
-      </c>
-      <c r="G169" t="s">
-        <v>252</v>
-      </c>
-      <c r="H169" t="s">
-        <v>253</v>
-      </c>
+      <c r="B169" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
-        <v>116</v>
-      </c>
-      <c r="F170" t="s">
-        <v>272</v>
-      </c>
-      <c r="I170">
-        <v>2</v>
+      <c r="B170" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" t="s">
+        <v>252</v>
+      </c>
+      <c r="H173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>116</v>
+      </c>
+      <c r="F174" t="s">
+        <v>272</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4907,8 +4950,8 @@
   <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49:I64"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,21 +5447,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5426,7 +5469,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -5437,10 +5480,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5459,21 +5502,21 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>289</v>
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -5481,7 +5524,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>289</v>
@@ -5492,7 +5535,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>289</v>
@@ -5503,10 +5546,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
+        <v>321</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5514,7 +5557,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
@@ -5525,7 +5568,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -5535,11 +5578,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>81</v>
+      <c r="A57" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -5548,10 +5591,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -5560,7 +5603,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -5572,10 +5615,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5583,32 +5626,32 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
         <v>169</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -5616,7 +5659,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>53</v>
@@ -5627,7 +5670,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>53</v>
@@ -5637,7 +5680,15 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
@@ -5799,7 +5850,7 @@
       <c r="F228" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68169B-E11C-4504-A90B-41D56711F931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A16A07-F6AD-474A-B531-E43545A95A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="378">
   <si>
     <t>setting_name</t>
   </si>
@@ -556,27 +556,6 @@
   </si>
   <si>
     <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
   </si>
   <si>
     <t>uri</t>
@@ -956,9 +935,6 @@
     <t>The nurse assessed that the child should not be included</t>
   </si>
   <si>
-    <t>data('PODEINC')=='2' || data('BRACOCRI') &lt;110 || data('TEMPERATURA')&gt;37.9 || data('VENAOVAS') == '2' || data('SARVAC') == '1'</t>
-  </si>
-  <si>
     <t>A criança não deve ser incluída, pois:</t>
   </si>
   <si>
@@ -989,9 +965,6 @@
     <t>TELEMOVEL1</t>
   </si>
   <si>
-    <t>telinf</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -1179,6 +1152,33 @@
   </si>
   <si>
     <t>data('regidcns') !=null</t>
+  </si>
+  <si>
+    <t>data('PODEVAC')=='2'|| data('PODEINC')=='2' || data('BRACOCRI') &lt;110 || data('TEMPERATURA')&gt;37.9 || data('VENAOVAS') == '2' || data('SARVAC') == '1'</t>
+  </si>
+  <si>
+    <t>The nurse assessed that the child should not be vaccinated</t>
+  </si>
+  <si>
+    <t>A enfermeira avaliou que a criança não deve ser vacinada</t>
+  </si>
+  <si>
+    <t>telinf1</t>
+  </si>
+  <si>
+    <t>telinf2</t>
+  </si>
+  <si>
+    <t>Don't have another phone number</t>
+  </si>
+  <si>
+    <t>Não tem outro número de telefone</t>
+  </si>
+  <si>
+    <t>data('TELEINF2') == '3'</t>
+  </si>
+  <si>
+    <t>data('TELEINF3') == '3'</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1282,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1298,7 +1298,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1626,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,10 +1649,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,7 +1741,7 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1750,22 +1749,22 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1780,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P176"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,25 +1834,25 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>295</v>
+        <v>209</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1866,10 +1865,10 @@
         <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1898,300 +1897,292 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" t="s">
-        <v>171</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" t="s">
-        <v>193</v>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>49</v>
+      </c>
       <c r="F12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I12">
-        <v>99</v>
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>322</v>
+      </c>
+      <c r="K13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L13" t="s">
+        <v>348</v>
+      </c>
+      <c r="M13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>40</v>
+        <v>169</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" t="s">
-        <v>331</v>
-      </c>
-      <c r="K14" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" t="s">
-        <v>357</v>
-      </c>
-      <c r="M14" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>376</v>
-      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>377</v>
+      <c r="D16" t="s">
+        <v>116</v>
       </c>
       <c r="E16" s="4"/>
+      <c r="F16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16">
+        <v>999999999</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" t="s">
-        <v>330</v>
-      </c>
-      <c r="I17">
-        <v>999999999</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>64</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="I23">
+        <v>9999</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24">
-        <v>9999</v>
+        <v>333</v>
+      </c>
+      <c r="G24" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>49</v>
+      <c r="B25" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>64</v>
+      <c r="D26" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="4"/>
+      <c r="F26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" t="s">
+        <v>336</v>
+      </c>
+      <c r="L26" t="s">
+        <v>348</v>
+      </c>
+      <c r="M26" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G27" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" t="s">
-        <v>325</v>
-      </c>
-      <c r="K27" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" t="s">
-        <v>357</v>
-      </c>
-      <c r="M27" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>335</v>
-      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>336</v>
+      <c r="D29" t="s">
+        <v>116</v>
       </c>
       <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29">
+        <v>9999</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>116</v>
+      <c r="B30" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" t="s">
-        <v>325</v>
-      </c>
-      <c r="I30">
-        <v>9999</v>
-      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -2201,49 +2192,57 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>12</v>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>374</v>
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
       </c>
       <c r="H36" t="s">
-        <v>375</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -2251,7 +2250,7 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -2263,19 +2262,19 @@
         <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,10 +2282,10 @@
         <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -2295,7 +2294,7 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -2361,13 +2360,13 @@
         <v>128</v>
       </c>
       <c r="K47" t="s">
+        <v>340</v>
+      </c>
+      <c r="L47" t="s">
         <v>349</v>
       </c>
-      <c r="L47" t="s">
-        <v>358</v>
-      </c>
       <c r="M47" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2421,19 +2420,19 @@
         <v>109</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -2444,19 +2443,19 @@
         <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -2482,13 +2481,13 @@
         <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H58" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -2502,7 +2501,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -2515,33 +2514,33 @@
         <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K62" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M62" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -2549,33 +2548,33 @@
         <v>40</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G64" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H64" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L64" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M64" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -2583,140 +2582,138 @@
         <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G66" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H66" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K66" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L66" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>376</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>12</v>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69">
+        <v>999999999</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70" t="s">
-        <v>157</v>
-      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" t="s">
-        <v>244</v>
-      </c>
-      <c r="H72" t="s">
-        <v>245</v>
+        <v>311</v>
+      </c>
+      <c r="I72">
+        <v>999999999</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" t="s">
-        <v>159</v>
-      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>233</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>341</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>340</v>
+      <c r="B75" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>64</v>
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>65</v>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G78" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -2727,146 +2724,137 @@
         <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>13</v>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H83" t="s">
-        <v>68</v>
-      </c>
-      <c r="K83" t="s">
-        <v>297</v>
-      </c>
-      <c r="L83" t="s">
-        <v>368</v>
-      </c>
-      <c r="M83" t="s">
-        <v>369</v>
-      </c>
-      <c r="N83" t="s">
-        <v>219</v>
-      </c>
-      <c r="O83" t="s">
-        <v>218</v>
-      </c>
-      <c r="P83" t="s">
-        <v>296</v>
+      <c r="B83" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" t="s">
-        <v>70</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" t="s">
         <v>300</v>
-      </c>
-      <c r="L84" t="s">
-        <v>225</v>
-      </c>
-      <c r="M84" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" t="s">
-        <v>73</v>
-      </c>
-      <c r="F87" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" t="s">
-        <v>135</v>
+      <c r="B87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K89" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M89" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="N89" t="s">
+        <v>212</v>
+      </c>
+      <c r="O89" t="s">
+        <v>211</v>
+      </c>
+      <c r="P89" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>64</v>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" t="s">
+        <v>293</v>
+      </c>
+      <c r="L90" t="s">
+        <v>218</v>
+      </c>
+      <c r="M90" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -2884,77 +2872,62 @@
         <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>76</v>
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" t="s">
-        <v>77</v>
-      </c>
-      <c r="G94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>78</v>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>79</v>
+        <v>136</v>
+      </c>
+      <c r="H95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s">
+        <v>291</v>
+      </c>
+      <c r="L95" t="s">
+        <v>349</v>
+      </c>
+      <c r="M95" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" t="s">
-        <v>152</v>
-      </c>
-      <c r="F98" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" t="s">
-        <v>142</v>
-      </c>
-      <c r="H98" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -2965,13 +2938,13 @@
         <v>152</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s">
-        <v>141</v>
-      </c>
-      <c r="H99" t="s">
-        <v>84</v>
+        <v>137</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -2982,594 +2955,581 @@
         <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s">
-        <v>143</v>
-      </c>
-      <c r="H100" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>13</v>
+      <c r="D101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F103" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" t="s">
-        <v>145</v>
-      </c>
-      <c r="H103" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E104" t="s">
+        <v>152</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H104" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" t="s">
+        <v>143</v>
+      </c>
+      <c r="H106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" t="s">
-        <v>152</v>
-      </c>
-      <c r="F107" t="s">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s">
-        <v>153</v>
-      </c>
-      <c r="H107" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="F109" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H109" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>169</v>
-      </c>
-      <c r="E110" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>268</v>
+        <v>88</v>
+      </c>
+      <c r="G110" t="s">
+        <v>146</v>
+      </c>
+      <c r="H110" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>61</v>
       </c>
-      <c r="C111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
+      <c r="C114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>49</v>
       </c>
-      <c r="F112" t="s">
-        <v>269</v>
-      </c>
-      <c r="G112" t="s">
-        <v>287</v>
-      </c>
-      <c r="H112" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="F118" t="s">
+        <v>262</v>
+      </c>
+      <c r="G118" t="s">
+        <v>280</v>
+      </c>
+      <c r="H118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>53</v>
-      </c>
-      <c r="E117" t="s">
-        <v>58</v>
-      </c>
-      <c r="F117" t="s">
-        <v>92</v>
-      </c>
-      <c r="G117" t="s">
-        <v>148</v>
-      </c>
-      <c r="H117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>49</v>
-      </c>
-      <c r="F119" t="s">
-        <v>93</v>
-      </c>
-      <c r="G119" t="s">
-        <v>147</v>
-      </c>
-      <c r="H119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>53</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E123" t="s">
         <v>58</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F123" t="s">
+        <v>92</v>
+      </c>
+      <c r="G123" t="s">
+        <v>148</v>
+      </c>
+      <c r="H123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
+      <c r="H125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" t="s">
         <v>107</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G127" t="s">
         <v>149</v>
       </c>
-      <c r="H121" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="H127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>61</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C128" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>49</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F129" t="s">
         <v>168</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G129" t="s">
         <v>147</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H129" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>61</v>
       </c>
-      <c r="C126" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="C132" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>116</v>
       </c>
-      <c r="F128" t="s">
-        <v>272</v>
-      </c>
-      <c r="I128">
+      <c r="F134" t="s">
+        <v>265</v>
+      </c>
+      <c r="I134">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
         <v>34</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H129" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>61</v>
-      </c>
-      <c r="C130" t="s">
-        <v>108</v>
-      </c>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H131" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>64</v>
-      </c>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>61</v>
-      </c>
-      <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H134" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>64</v>
-      </c>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>34</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="H137" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>64</v>
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>61</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>34</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H140" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>64</v>
       </c>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>34</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H143" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>64</v>
       </c>
+      <c r="G144" s="2"/>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
+      <c r="G145" s="2"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>205</v>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H146" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>12</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G147" s="2"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H148" t="s">
-        <v>236</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L148" t="s">
-        <v>256</v>
-      </c>
-      <c r="M148" t="s">
-        <v>257</v>
-      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>270</v>
+      </c>
+      <c r="G148" s="2"/>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>40</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H149" t="s">
-        <v>237</v>
-      </c>
-      <c r="K149" t="s">
-        <v>282</v>
-      </c>
-      <c r="L149" t="s">
-        <v>254</v>
-      </c>
-      <c r="M149" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>116</v>
-      </c>
-      <c r="F150" t="s">
-        <v>272</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="G150" s="2"/>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" t="s">
+        <v>272</v>
+      </c>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H152" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>116</v>
-      </c>
-      <c r="F153" t="s">
-        <v>94</v>
-      </c>
-      <c r="I153" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>32</v>
-      </c>
-      <c r="F154" t="s">
-        <v>94</v>
-      </c>
-      <c r="G154" t="s">
-        <v>162</v>
-      </c>
-      <c r="H154" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>292</v>
-      </c>
-      <c r="F155" t="s">
-        <v>293</v>
-      </c>
-      <c r="G155" t="s">
-        <v>271</v>
-      </c>
-      <c r="H155" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>116</v>
-      </c>
-      <c r="F156" t="s">
-        <v>95</v>
-      </c>
-      <c r="I156" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>40</v>
       </c>
-      <c r="F157" t="s">
-        <v>96</v>
-      </c>
-      <c r="G157" t="s">
-        <v>165</v>
+      <c r="F157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H157" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L157" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M157" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>40</v>
       </c>
-      <c r="F158" t="s">
-        <v>222</v>
-      </c>
-      <c r="G158" t="s">
-        <v>122</v>
+      <c r="F158" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="H158" t="s">
-        <v>124</v>
-      </c>
-      <c r="K158" s="2" t="s">
-        <v>299</v>
+        <v>230</v>
+      </c>
+      <c r="K158" t="s">
+        <v>275</v>
       </c>
       <c r="L158" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M158" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -3577,146 +3537,263 @@
         <v>116</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
-      </c>
-      <c r="I159" t="s">
-        <v>223</v>
+        <v>265</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>116</v>
+      </c>
+      <c r="F162" t="s">
+        <v>94</v>
+      </c>
+      <c r="I162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" t="s">
+        <v>94</v>
+      </c>
+      <c r="G163" t="s">
+        <v>162</v>
+      </c>
+      <c r="H163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>285</v>
+      </c>
+      <c r="F164" t="s">
+        <v>286</v>
+      </c>
+      <c r="G164" t="s">
+        <v>264</v>
+      </c>
+      <c r="H164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>116</v>
+      </c>
+      <c r="F165" t="s">
+        <v>95</v>
+      </c>
+      <c r="I165" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" t="s">
+        <v>96</v>
+      </c>
+      <c r="G166" t="s">
+        <v>165</v>
+      </c>
+      <c r="H166" t="s">
+        <v>164</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L166" t="s">
+        <v>249</v>
+      </c>
+      <c r="M166" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" t="s">
+        <v>215</v>
+      </c>
+      <c r="G167" t="s">
+        <v>122</v>
+      </c>
+      <c r="H167" t="s">
+        <v>124</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L167" t="s">
+        <v>249</v>
+      </c>
+      <c r="M167" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>116</v>
+      </c>
+      <c r="F168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>61</v>
       </c>
-      <c r="C160" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
+      <c r="C169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>34</v>
       </c>
-      <c r="G161" t="s">
-        <v>220</v>
-      </c>
-      <c r="H161" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+      <c r="G170" t="s">
+        <v>213</v>
+      </c>
+      <c r="H170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D166" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E166" t="s">
-        <v>238</v>
-      </c>
-      <c r="F166" s="2" t="s">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D175" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E175" t="s">
+        <v>231</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G175" t="s">
         <v>166</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H175" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>61</v>
       </c>
-      <c r="C167" t="s">
-        <v>284</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D168" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E168" t="s">
-        <v>240</v>
-      </c>
-      <c r="F168" s="2" t="s">
+      <c r="C176" t="s">
+        <v>277</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D177" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E177" t="s">
+        <v>233</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G177" t="s">
         <v>167</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H177" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>64</v>
       </c>
-      <c r="D169" s="2"/>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="D178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
         <v>34</v>
       </c>
-      <c r="G173" t="s">
-        <v>252</v>
-      </c>
-      <c r="H173" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
+      <c r="G182" t="s">
+        <v>245</v>
+      </c>
+      <c r="H182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
         <v>116</v>
       </c>
-      <c r="F174" t="s">
-        <v>272</v>
-      </c>
-      <c r="I174">
+      <c r="F183" t="s">
+        <v>265</v>
+      </c>
+      <c r="I183">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3732,7 +3809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,25 +3857,25 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>295</v>
+        <v>209</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3814,36 +3891,36 @@
         <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3851,10 +3928,10 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3862,7 +3939,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3871,7 +3948,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I7">
         <v>99</v>
@@ -3896,48 +3973,48 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>207</v>
+      <c r="J11" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3963,7 +4040,7 @@
         <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3971,7 +4048,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -3993,13 +4070,13 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G16" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H16" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -4014,22 +4091,22 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M18" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -4040,7 +4117,7 @@
         <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -4048,7 +4125,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -4058,7 +4135,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I21">
         <v>9999</v>
@@ -4088,11 +4165,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -4141,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -4156,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -4171,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>60</v>
@@ -4186,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>72</v>
@@ -4201,10 +4278,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,10 +4292,10 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -4245,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
@@ -4260,25 +4337,25 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B12" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,170 +4367,206 @@
         <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B18" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B19" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B20" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="B23" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -4493,16 +4606,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+      <c r="A56" s="4"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
@@ -4590,15 +4703,12 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
@@ -4617,6 +4727,7 @@
       <c r="C92" s="9"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -4628,7 +4739,6 @@
       <c r="C95" s="9"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
       <c r="C96" s="9"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -4693,50 +4803,53 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -4765,6 +4878,15 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4804,89 +4926,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A251D7-9A59-4B98-940C-6B4EF34B6D86}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>208</v>
+      <c r="D3" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4949,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -4977,7 +5071,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4985,10 +5079,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5018,7 +5112,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>169</v>
@@ -5029,7 +5123,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -5051,7 +5145,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>40</v>
@@ -5062,7 +5156,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>169</v>
@@ -5073,7 +5167,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -5164,7 +5258,7 @@
         <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5183,10 +5277,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -5238,7 +5332,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>169</v>
@@ -5249,7 +5343,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
         <v>116</v>
@@ -5315,7 +5409,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -5381,7 +5475,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>169</v>
@@ -5436,7 +5530,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>40</v>
@@ -5447,7 +5541,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
         <v>169</v>
@@ -5480,7 +5574,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -5491,7 +5585,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -5502,7 +5596,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
         <v>116</v>
@@ -5516,7 +5610,7 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -5524,10 +5618,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -5535,10 +5629,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -5546,10 +5640,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5557,7 +5651,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
@@ -5568,7 +5662,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -5579,7 +5673,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -5637,7 +5731,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B62" t="s">
         <v>169</v>
@@ -5648,7 +5742,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A16A07-F6AD-474A-B531-E43545A95A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B760D4B5-1002-406E-B1A5-16A8E2165133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="416">
   <si>
     <t>setting_name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>CAMO</t>
   </si>
   <si>
-    <t>Casa</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
   </si>
   <si>
     <t>Número de estudo</t>
-  </si>
-  <si>
-    <t>House number</t>
   </si>
   <si>
     <t>Other neighborhood</t>
@@ -686,21 +680,12 @@
     <t>Write the temperature with 1 decimal</t>
   </si>
   <si>
-    <t>Assigned study number: {{data.NUMEST}}</t>
-  </si>
-  <si>
-    <t>Número de estudo atribuído: {{data.NUMEST}}</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
     <t>freebase.studyNumber("MAD",5,data('num'))</t>
   </si>
   <si>
-    <t>data('num') != null</t>
-  </si>
-  <si>
     <t>Must be between 50 and 342 and a even number:</t>
   </si>
   <si>
@@ -788,18 +773,6 @@
     <t>&lt;font color = "red"&gt; Finalize a inclusão porque o consentimento não foi dado &lt;/font&gt;</t>
   </si>
   <si>
-    <t>Must be 1-12</t>
-  </si>
-  <si>
-    <t>Deve ser de 1 a 12</t>
-  </si>
-  <si>
-    <t>Cannot be negative</t>
-  </si>
-  <si>
-    <t>Não pode ser negativo</t>
-  </si>
-  <si>
     <t>tratament</t>
   </si>
   <si>
@@ -827,18 +800,9 @@
     <t>Tratamento 4</t>
   </si>
   <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t>tratqualou</t>
-  </si>
-  <si>
     <t>TRATQUALOU</t>
   </si>
   <si>
-    <t>data('tratqualou') != null</t>
-  </si>
-  <si>
     <t>Time of vaccination</t>
   </si>
   <si>
@@ -875,18 +839,9 @@
     <t>data('RANDOM2')&lt;13 &amp;&amp; data('RANDOM2')&gt;0 || data('INC') == '2'</t>
   </si>
   <si>
-    <t>data('RANDOM1')&gt;0 || data('INC') == '2'</t>
-  </si>
-  <si>
     <t>data('INC') == '1'</t>
   </si>
   <si>
-    <t>Outro tratamento</t>
-  </si>
-  <si>
-    <t>Other treatment</t>
-  </si>
-  <si>
     <t>Other:</t>
   </si>
   <si>
@@ -1179,6 +1134,165 @@
   </si>
   <si>
     <t>data('TELEINF3') == '3'</t>
+  </si>
+  <si>
+    <t>Dont't have ID</t>
+  </si>
+  <si>
+    <t>Não tene ID</t>
+  </si>
+  <si>
+    <t>data('RANDOM2')&lt;501 &amp;&amp; data('RANDOM1')&gt;0 || data('INC') == '2'</t>
+  </si>
+  <si>
+    <t>Must be 1-500:</t>
+  </si>
+  <si>
+    <t>Must be 1-12:</t>
+  </si>
+  <si>
+    <t>Cannot be negative:</t>
+  </si>
+  <si>
+    <t>Deve ser de 1 a 500:</t>
+  </si>
+  <si>
+    <t>Deve ser de 1 a 12:</t>
+  </si>
+  <si>
+    <t>Não pode ser negativo:</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>freebase.randomLabel(data('SEX'),data('RANDOM1'),data('RANDOM2'))</t>
+  </si>
+  <si>
+    <t>Label: &lt;b&gt;{{data.RANDOM}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Etiqueta: &lt;b&gt;{{data.RANDOM}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>nsREGIDC</t>
+  </si>
+  <si>
+    <t>data('changeid') == '1'</t>
+  </si>
+  <si>
+    <t>data('changetabz') =='1'</t>
+  </si>
+  <si>
+    <t>Name: &lt;b&gt;{{data.NOMECRI}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nome: &lt;b&gt;{{data.NOMECRI}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>data('SEX') =='1'</t>
+  </si>
+  <si>
+    <t>Sex: &lt;b&gt;Male&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sexo: &lt;b&gt;Masculino&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sex: &lt;b&gt;Female&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sexo: &lt;b&gt;Feminino&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>data('DOB') == 'D:NS,M:NS,Y:NS'</t>
+  </si>
+  <si>
+    <t>Age: &lt;b&gt;{{data.IDADEANO}}&lt;/b&gt; year(s), &lt;b&gt;{{data.IDADEMES}}&lt;/b&gt; month(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade: &lt;b&gt;{{data.IDADEANO}}&lt;/b&gt; ano(s), &lt;b&gt;{{data.IDADEMES}}&lt;/b&gt; mes(es) </t>
+  </si>
+  <si>
+    <t>Birthdate: &lt;b&gt;{{calculates.displayDOB}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Data de nascimento: &lt;b&gt;{{calculates.displayDOB}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>ID: &lt;b&gt;{{data.ID}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>TABZ: &lt;b&gt;{{data.TABZ}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>data('CAMO') == '9999'</t>
+  </si>
+  <si>
+    <t>Camo: &lt;b&gt;{{data.CAMOONDE}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Camo: &lt;b&gt;{{data.CAMO}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>changeid</t>
+  </si>
+  <si>
+    <t>changetabz</t>
+  </si>
+  <si>
+    <t>Change ID?</t>
+  </si>
+  <si>
+    <t>Alterar ID?</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Change TABZ/Camo?</t>
+  </si>
+  <si>
+    <t>Alterar TABZ/Camo?</t>
+  </si>
+  <si>
+    <t>data('changeid') == '1' || data('changetabz') =='1'</t>
+  </si>
+  <si>
+    <t>No. triage survey: &lt;b&gt;{{data.REGNO}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nº ficha de triagem: &lt;b&gt;{{data.REGNO}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Camo</t>
+  </si>
+  <si>
+    <t>House number (camo)</t>
+  </si>
+  <si>
+    <t>Study number: &lt;b&gt;{{data.NUMEST}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Número de estudo: &lt;b&gt;{{data.NUMEST}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>display.adate.helperText</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>selected(data('TRATQUAL'),'77')</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1396,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1300,6 +1414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1625,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,35 +1857,35 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1779,11 +1895,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1921,7 @@
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1834,55 +1950,58 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -1890,305 +2009,303 @@
         <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" t="s">
         <v>180</v>
       </c>
-      <c r="E8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>181</v>
       </c>
-      <c r="G8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>322</v>
-      </c>
-      <c r="K13" t="s">
-        <v>346</v>
-      </c>
-      <c r="L13" t="s">
-        <v>348</v>
-      </c>
-      <c r="M13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>368</v>
-      </c>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F16" t="s">
-        <v>321</v>
-      </c>
-      <c r="I16">
-        <v>999999999</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>198</v>
+      <c r="D18" t="s">
+        <v>115</v>
       </c>
       <c r="E18" s="4"/>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>9999</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" t="s">
-        <v>178</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>40</v>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>301</v>
+      </c>
+      <c r="G21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>116</v>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23">
-        <v>9999</v>
-      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" t="s">
-        <v>334</v>
+        <v>301</v>
+      </c>
+      <c r="I24">
+        <v>9999</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>40</v>
+      <c r="B26" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" t="s">
-        <v>316</v>
-      </c>
-      <c r="G26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" t="s">
-        <v>316</v>
-      </c>
-      <c r="K26" t="s">
-        <v>336</v>
-      </c>
-      <c r="L26" t="s">
-        <v>348</v>
-      </c>
-      <c r="M26" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>326</v>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>48</v>
+      </c>
       <c r="F29" t="s">
-        <v>316</v>
-      </c>
-      <c r="I29">
-        <v>9999</v>
+        <v>49</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>349</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -2202,36 +2319,28 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>168</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>364</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>40</v>
       </c>
@@ -2239,174 +2348,178 @@
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>317</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" t="s">
-        <v>225</v>
-      </c>
-      <c r="H38" t="s">
-        <v>224</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L38" t="s">
-        <v>351</v>
-      </c>
-      <c r="M38" t="s">
-        <v>352</v>
-      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>102</v>
+      </c>
+      <c r="I39">
+        <v>9999999</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41">
-        <v>9999999</v>
+      <c r="B41" t="s">
+        <v>196</v>
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="2"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" t="s">
-        <v>121</v>
-      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>13</v>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45">
+        <v>999999999</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" t="s">
-        <v>340</v>
-      </c>
-      <c r="L47" t="s">
-        <v>349</v>
-      </c>
-      <c r="M47" t="s">
-        <v>350</v>
+      <c r="B47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" t="s">
-        <v>113</v>
+      <c r="B48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" t="s">
+        <v>325</v>
+      </c>
+      <c r="L50" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>64</v>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>111</v>
@@ -2414,244 +2527,242 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L53" t="s">
-        <v>357</v>
-      </c>
-      <c r="M53" t="s">
-        <v>356</v>
+        <v>51</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" t="s">
-        <v>203</v>
-      </c>
-      <c r="H54" t="s">
-        <v>205</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="L54" t="s">
-        <v>354</v>
-      </c>
-      <c r="M54" t="s">
-        <v>355</v>
+      <c r="B54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>13</v>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" t="s">
+        <v>200</v>
+      </c>
+      <c r="H56" t="s">
+        <v>202</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s">
+        <v>342</v>
+      </c>
+      <c r="M56" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>12</v>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L57" t="s">
+        <v>339</v>
+      </c>
+      <c r="M57" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G58" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58" t="s">
-        <v>241</v>
+      <c r="B58" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H62" t="s">
-        <v>328</v>
-      </c>
-      <c r="K62" t="s">
-        <v>341</v>
-      </c>
-      <c r="L62" t="s">
-        <v>358</v>
-      </c>
-      <c r="M62" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>282</v>
-      </c>
-      <c r="E63" t="s">
-        <v>372</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G64" t="s">
-        <v>314</v>
-      </c>
-      <c r="H64" t="s">
-        <v>344</v>
-      </c>
-      <c r="K64" t="s">
-        <v>343</v>
-      </c>
-      <c r="L64" t="s">
-        <v>358</v>
-      </c>
-      <c r="M64" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H65" t="s">
+        <v>313</v>
+      </c>
+      <c r="K65" t="s">
+        <v>326</v>
+      </c>
+      <c r="L65" t="s">
+        <v>343</v>
+      </c>
+      <c r="M65" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>40</v>
+        <v>267</v>
+      </c>
+      <c r="E66" t="s">
+        <v>357</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" t="s">
-        <v>315</v>
-      </c>
-      <c r="H66" t="s">
-        <v>345</v>
-      </c>
-      <c r="K66" t="s">
-        <v>342</v>
-      </c>
-      <c r="L66" t="s">
-        <v>358</v>
-      </c>
-      <c r="M66" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
+      </c>
+      <c r="G67" t="s">
+        <v>299</v>
+      </c>
+      <c r="H67" t="s">
+        <v>329</v>
+      </c>
+      <c r="K67" t="s">
+        <v>328</v>
+      </c>
+      <c r="L67" t="s">
+        <v>343</v>
+      </c>
+      <c r="M67" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>376</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I69">
-        <v>999999999</v>
+        <v>296</v>
+      </c>
+      <c r="G69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" t="s">
+        <v>327</v>
+      </c>
+      <c r="L69" t="s">
+        <v>343</v>
+      </c>
+      <c r="M69" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="I72">
         <v>999999999</v>
@@ -2659,1142 +2770,1169 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>362</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>12</v>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I75">
+        <v>999999999</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G76" t="s">
-        <v>158</v>
-      </c>
-      <c r="H76" t="s">
-        <v>157</v>
-      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s">
-        <v>62</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G78" t="s">
-        <v>237</v>
-      </c>
-      <c r="H78" t="s">
-        <v>238</v>
+      <c r="B78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
         <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>332</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>331</v>
+        <v>232</v>
+      </c>
+      <c r="H81" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>64</v>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>317</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" t="s">
-        <v>67</v>
-      </c>
-      <c r="G85" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" t="s">
-        <v>300</v>
+      <c r="B85" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" t="s">
+        <v>129</v>
+      </c>
+      <c r="H88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K89" t="s">
-        <v>290</v>
-      </c>
-      <c r="L89" t="s">
-        <v>359</v>
-      </c>
-      <c r="M89" t="s">
-        <v>360</v>
-      </c>
-      <c r="N89" t="s">
-        <v>212</v>
-      </c>
-      <c r="O89" t="s">
-        <v>211</v>
-      </c>
-      <c r="P89" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G90" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" t="s">
-        <v>70</v>
-      </c>
-      <c r="K90" t="s">
-        <v>293</v>
-      </c>
-      <c r="L90" t="s">
-        <v>218</v>
-      </c>
-      <c r="M90" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>12</v>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" t="s">
+        <v>275</v>
+      </c>
+      <c r="L92" t="s">
+        <v>344</v>
+      </c>
+      <c r="M92" t="s">
+        <v>345</v>
+      </c>
+      <c r="N92" t="s">
+        <v>210</v>
+      </c>
+      <c r="O92" t="s">
+        <v>209</v>
+      </c>
+      <c r="P92" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>135</v>
+        <v>69</v>
+      </c>
+      <c r="K93" t="s">
+        <v>278</v>
+      </c>
+      <c r="L93" t="s">
+        <v>213</v>
+      </c>
+      <c r="M93" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>72</v>
+      </c>
+      <c r="F96" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>32</v>
       </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="K98" t="s">
+        <v>276</v>
+      </c>
+      <c r="L98" t="s">
+        <v>334</v>
+      </c>
+      <c r="M98" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" t="s">
+        <v>135</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" t="s">
         <v>136</v>
       </c>
-      <c r="H95" t="s">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s">
-        <v>291</v>
-      </c>
-      <c r="L95" t="s">
-        <v>349</v>
-      </c>
-      <c r="M95" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="H103" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s">
+        <v>137</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" t="s">
-        <v>152</v>
-      </c>
-      <c r="F99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G99" t="s">
-        <v>137</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F100" t="s">
-        <v>77</v>
-      </c>
-      <c r="G100" t="s">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+      <c r="F107" t="s">
+        <v>81</v>
+      </c>
+      <c r="G107" t="s">
+        <v>140</v>
+      </c>
+      <c r="H107" t="s">
         <v>138</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>152</v>
-      </c>
-      <c r="F101" t="s">
-        <v>80</v>
-      </c>
-      <c r="G101" t="s">
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>150</v>
+      </c>
+      <c r="F108" t="s">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s">
         <v>139</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="H108" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" t="s">
+        <v>150</v>
+      </c>
+      <c r="F109" t="s">
+        <v>84</v>
+      </c>
+      <c r="G109" t="s">
+        <v>141</v>
+      </c>
+      <c r="H109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" t="s">
-        <v>152</v>
-      </c>
-      <c r="F104" t="s">
-        <v>82</v>
-      </c>
-      <c r="G104" t="s">
-        <v>142</v>
-      </c>
-      <c r="H104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" t="s">
-        <v>152</v>
-      </c>
-      <c r="F105" t="s">
-        <v>83</v>
-      </c>
-      <c r="G105" t="s">
-        <v>141</v>
-      </c>
-      <c r="H105" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" t="s">
-        <v>152</v>
-      </c>
-      <c r="F106" t="s">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" t="s">
         <v>85</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G112" t="s">
         <v>143</v>
       </c>
-      <c r="H106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" t="s">
-        <v>152</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="H112" t="s">
         <v>86</v>
-      </c>
-      <c r="G109" t="s">
-        <v>145</v>
-      </c>
-      <c r="H109" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" t="s">
-        <v>146</v>
-      </c>
-      <c r="H110" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>53</v>
-      </c>
-      <c r="E113" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H113" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>169</v>
-      </c>
-      <c r="E115" t="s">
-        <v>251</v>
-      </c>
-      <c r="F115" t="s">
-        <v>91</v>
-      </c>
-      <c r="G115" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" t="s">
-        <v>156</v>
+      <c r="B115" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="F116" t="s">
-        <v>261</v>
+        <v>88</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H116" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>49</v>
+        <v>167</v>
+      </c>
+      <c r="E118" t="s">
+        <v>242</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="H118" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C119" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>64</v>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>251</v>
+      </c>
+      <c r="G120" t="s">
+        <v>265</v>
+      </c>
+      <c r="H120" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" t="s">
-        <v>92</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
-      <c r="H123" t="s">
-        <v>150</v>
+      <c r="B123" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E125" t="s">
+        <v>57</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C126" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
+        <v>145</v>
+      </c>
+      <c r="H127" t="s">
         <v>149</v>
-      </c>
-      <c r="H127" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>61</v>
-      </c>
-      <c r="C128" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E129" t="s">
+        <v>57</v>
       </c>
       <c r="F129" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="G129" t="s">
         <v>147</v>
       </c>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C130" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>13</v>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" t="s">
+        <v>166</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
+      <c r="H131" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>116</v>
-      </c>
-      <c r="F134" t="s">
-        <v>265</v>
-      </c>
-      <c r="I134">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F136" t="s">
+        <v>253</v>
+      </c>
+      <c r="I136">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H135" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" t="s">
-        <v>101</v>
-      </c>
-      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>34</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="H137" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C138" t="s">
+        <v>100</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>61</v>
-      </c>
-      <c r="C139" t="s">
-        <v>108</v>
-      </c>
-      <c r="G139" s="2"/>
+      <c r="D139" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H139" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H140" t="s">
-        <v>297</v>
-      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140" s="2"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>107</v>
       </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" t="s">
-        <v>266</v>
-      </c>
-      <c r="G142" s="2"/>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H142" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H143" t="s">
-        <v>299</v>
-      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="G143" s="2"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C144" t="s">
+        <v>254</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" t="s">
-        <v>268</v>
-      </c>
-      <c r="G145" s="2"/>
+      <c r="D145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H145" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" t="s">
-        <v>298</v>
-      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="G146" s="2"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C147" t="s">
+        <v>256</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" t="s">
-        <v>270</v>
-      </c>
-      <c r="G148" s="2"/>
+      <c r="D148" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H148" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>34</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H149" t="s">
-        <v>301</v>
-      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149" s="2"/>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C150" t="s">
+        <v>258</v>
       </c>
       <c r="G150" s="2"/>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" t="s">
-        <v>272</v>
-      </c>
-      <c r="G151" s="2"/>
+      <c r="D151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H151" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H152" t="s">
-        <v>238</v>
-      </c>
+      <c r="B152" t="s">
+        <v>63</v>
+      </c>
+      <c r="G152" s="2"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C153" t="s">
+        <v>260</v>
+      </c>
+      <c r="G153" s="2"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>13</v>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H154" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H157" t="s">
-        <v>229</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L157" t="s">
-        <v>249</v>
-      </c>
-      <c r="M157" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>40</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H158" t="s">
-        <v>230</v>
-      </c>
-      <c r="K158" t="s">
-        <v>275</v>
-      </c>
-      <c r="L158" t="s">
-        <v>247</v>
-      </c>
-      <c r="M158" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>116</v>
-      </c>
-      <c r="F159" t="s">
-        <v>265</v>
-      </c>
-      <c r="I159">
+        <v>40</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H159" t="s">
+        <v>224</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L159" t="s">
+        <v>366</v>
+      </c>
+      <c r="M159" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H160" t="s">
+        <v>225</v>
+      </c>
+      <c r="K160" t="s">
+        <v>263</v>
+      </c>
+      <c r="L160" t="s">
+        <v>367</v>
+      </c>
+      <c r="M160" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>115</v>
+      </c>
+      <c r="F161" t="s">
+        <v>372</v>
+      </c>
+      <c r="I161" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" t="s">
+        <v>374</v>
+      </c>
+      <c r="H162" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>115</v>
+      </c>
+      <c r="F163" t="s">
+        <v>253</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
-        <v>116</v>
-      </c>
-      <c r="F162" t="s">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>115</v>
+      </c>
+      <c r="F166" t="s">
+        <v>93</v>
+      </c>
+      <c r="I166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" t="s">
+        <v>93</v>
+      </c>
+      <c r="G167" t="s">
+        <v>160</v>
+      </c>
+      <c r="H167" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>270</v>
+      </c>
+      <c r="F168" t="s">
+        <v>271</v>
+      </c>
+      <c r="G168" t="s">
+        <v>252</v>
+      </c>
+      <c r="H168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>115</v>
+      </c>
+      <c r="F169" t="s">
         <v>94</v>
       </c>
-      <c r="I162" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
-        <v>32</v>
-      </c>
-      <c r="F163" t="s">
-        <v>94</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="I169" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170" t="s">
+        <v>95</v>
+      </c>
+      <c r="G170" t="s">
+        <v>163</v>
+      </c>
+      <c r="H170" t="s">
         <v>162</v>
       </c>
-      <c r="H163" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
-        <v>285</v>
-      </c>
-      <c r="F164" t="s">
-        <v>286</v>
-      </c>
-      <c r="G164" t="s">
-        <v>264</v>
-      </c>
-      <c r="H164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
-        <v>116</v>
-      </c>
-      <c r="F165" t="s">
-        <v>95</v>
-      </c>
-      <c r="I165" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
+      <c r="K170" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L170" t="s">
+        <v>368</v>
+      </c>
+      <c r="M170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
         <v>40</v>
       </c>
-      <c r="F166" t="s">
-        <v>96</v>
-      </c>
-      <c r="G166" t="s">
-        <v>165</v>
-      </c>
-      <c r="H166" t="s">
-        <v>164</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L166" t="s">
-        <v>249</v>
-      </c>
-      <c r="M166" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>40</v>
-      </c>
-      <c r="F167" t="s">
-        <v>215</v>
-      </c>
-      <c r="G167" t="s">
-        <v>122</v>
-      </c>
-      <c r="H167" t="s">
-        <v>124</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L167" t="s">
-        <v>249</v>
-      </c>
-      <c r="M167" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
-        <v>116</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="F171" t="s">
+        <v>211</v>
+      </c>
+      <c r="G171" t="s">
+        <v>121</v>
+      </c>
+      <c r="H171" t="s">
+        <v>123</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L171" t="s">
+        <v>368</v>
+      </c>
+      <c r="M171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>115</v>
+      </c>
+      <c r="F172" t="s">
         <v>41</v>
       </c>
-      <c r="I168" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>61</v>
-      </c>
-      <c r="C169" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
+      <c r="I172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
         <v>34</v>
       </c>
-      <c r="G170" t="s">
-        <v>213</v>
-      </c>
-      <c r="H170" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="G173" t="s">
+        <v>410</v>
+      </c>
+      <c r="H173" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D175" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E175" t="s">
-        <v>231</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G175" t="s">
-        <v>166</v>
-      </c>
-      <c r="H175" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176" t="s">
-        <v>277</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D177" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E177" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G177" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H177" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C178" t="s">
+        <v>264</v>
       </c>
       <c r="D178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>13</v>
+      <c r="D179" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E179" t="s">
+        <v>228</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G179" t="s">
+        <v>165</v>
+      </c>
+      <c r="H179" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>198</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="F180" s="2"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
         <v>34</v>
       </c>
-      <c r="G182" t="s">
-        <v>245</v>
-      </c>
-      <c r="H182" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D183" t="s">
-        <v>116</v>
-      </c>
-      <c r="F183" t="s">
-        <v>265</v>
-      </c>
-      <c r="I183">
+      <c r="G184" t="s">
+        <v>240</v>
+      </c>
+      <c r="H184" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>115</v>
+      </c>
+      <c r="F185" t="s">
+        <v>253</v>
+      </c>
+      <c r="I185">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>64</v>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3805,11 +3943,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51903F-6DA4-47CD-A8E7-349E4DD7CE62}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3957,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3857,309 +3995,789 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M3" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" t="s">
-        <v>183</v>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" t="s">
-        <v>322</v>
-      </c>
-      <c r="K9" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" t="s">
-        <v>348</v>
-      </c>
-      <c r="M9" t="s">
-        <v>347</v>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H10" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>200</v>
+      <c r="B11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>221</v>
+      <c r="B13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15">
-        <v>9999</v>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>395</v>
+      </c>
+      <c r="H20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L27" t="s">
+        <v>336</v>
+      </c>
+      <c r="M27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>309</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30">
+        <v>9999999</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>378</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>308</v>
+      </c>
+      <c r="H41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
         <v>333</v>
       </c>
-      <c r="G16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="M41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" t="s">
-        <v>316</v>
-      </c>
-      <c r="K18" t="s">
-        <v>336</v>
-      </c>
-      <c r="L18" t="s">
-        <v>348</v>
-      </c>
-      <c r="M18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>409</v>
+      </c>
+      <c r="H44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>115</v>
       </c>
-      <c r="F19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" t="s">
-        <v>316</v>
-      </c>
-      <c r="I21">
+      <c r="E47" s="4"/>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47">
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" t="s">
+        <v>301</v>
+      </c>
+      <c r="H50" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>379</v>
+      </c>
+      <c r="H60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>382</v>
+      </c>
+      <c r="H62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>387</v>
+      </c>
+      <c r="H67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>406</v>
+      </c>
+      <c r="H71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>391</v>
+      </c>
+      <c r="H72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>392</v>
+      </c>
+      <c r="H73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>394</v>
+      </c>
+      <c r="H75" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" t="s">
+        <v>395</v>
+      </c>
+      <c r="H77" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P79" s="13"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4168,8 +4786,8 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,376 +4814,391 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>189</v>
+      <c r="C13" t="s">
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B18" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B19" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B20" t="str">
-        <f>"99"</f>
-        <v>99</v>
+        <f>"77"</f>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>279</v>
+        <v>414</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B26" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>320</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -4943,44 +5576,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5041,11 +5674,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5055,7 +5688,7 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5065,32 +5698,38 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -5099,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5110,42 +5749,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>40</v>
@@ -5154,40 +5793,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5198,9 +5837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -5209,23 +5848,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5233,7 +5872,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -5244,10 +5883,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -5255,10 +5894,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5266,10 +5905,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5277,10 +5916,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -5288,10 +5927,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -5299,7 +5938,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -5310,7 +5949,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -5321,7 +5960,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -5332,10 +5971,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -5343,10 +5982,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -5354,7 +5993,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -5365,10 +6004,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5376,10 +6015,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5387,10 +6026,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5398,10 +6037,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5409,7 +6048,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -5423,7 +6062,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5431,7 +6070,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -5442,10 +6081,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5456,7 +6095,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5464,10 +6103,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5475,10 +6114,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -5486,10 +6125,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5497,10 +6136,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5508,10 +6147,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
+        <v>372</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5519,7 +6158,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -5530,9 +6169,9 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="C44" t="b">
@@ -5541,32 +6180,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
+        <v>306</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5574,10 +6213,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5585,10 +6224,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -5596,10 +6235,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -5607,21 +6246,21 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>282</v>
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -5629,10 +6268,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -5640,10 +6279,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5651,10 +6290,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
+        <v>297</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -5662,7 +6301,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -5673,7 +6312,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -5684,11 +6323,11 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>81</v>
+      <c r="A58" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -5697,10 +6336,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -5709,10 +6348,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5720,10 +6359,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -5731,21 +6370,21 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -5753,77 +6392,96 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -5928,24 +6586,21 @@
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="8"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F160" s="2"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F163" s="2"/>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F228" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A68:C69">
+    <sortCondition ref="A68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA39D40-DBE8-4D76-8E8C-938DFE3E3F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE8BCC-921E-479A-9F0B-6A1E0C91374E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="9" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>RENORREI</t>
   </si>
   <si>
-    <t>TOSSEE</t>
-  </si>
-  <si>
     <t>Tosse</t>
   </si>
   <si>
@@ -1340,6 +1337,9 @@
   </si>
   <si>
     <t>If the child have a prescription, please take a photo</t>
+  </si>
+  <si>
+    <t>TOSSE</t>
   </si>
 </sst>
 </file>
@@ -1793,12 +1793,12 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
         <v>264</v>
-      </c>
-      <c r="D5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,9 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142:XFD142"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,31 +1973,31 @@
         <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2007,24 +2007,24 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" t="s">
         <v>247</v>
-      </c>
-      <c r="I3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2035,10 +2035,10 @@
         <v>42</v>
       </c>
       <c r="G5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" t="s">
         <v>358</v>
-      </c>
-      <c r="H5" t="s">
-        <v>359</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -2056,30 +2056,30 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
         <v>166</v>
       </c>
-      <c r="E8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>167</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>168</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2087,16 +2087,16 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11">
         <v>77</v>
@@ -2110,36 +2110,36 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2151,21 +2151,21 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -2173,13 +2173,13 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" t="s">
@@ -2195,13 +2195,13 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="H19" t="s">
         <v>291</v>
-      </c>
-      <c r="G19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
@@ -2216,36 +2216,36 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
@@ -2253,17 +2253,17 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I24">
         <v>99999</v>
@@ -2299,10 +2299,10 @@
         <v>48</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
@@ -2316,13 +2316,13 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" t="s">
         <v>316</v>
-      </c>
-      <c r="H30" t="s">
-        <v>317</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
@@ -2333,13 +2333,13 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -2356,19 +2356,19 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H34" t="s">
         <v>373</v>
-      </c>
-      <c r="H34" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -2388,10 +2388,10 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H36" t="s">
         <v>376</v>
-      </c>
-      <c r="H36" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -2415,24 +2415,24 @@
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
         <v>156</v>
-      </c>
-      <c r="H40" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2440,15 +2440,15 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43">
         <v>999</v>
@@ -2464,7 +2464,7 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G45" s="4"/>
     </row>
@@ -2473,33 +2473,33 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
+        <v>304</v>
+      </c>
+      <c r="M46" t="s">
         <v>305</v>
-      </c>
-      <c r="M46" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K47" s="2"/>
     </row>
@@ -2508,16 +2508,16 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I49">
         <v>9999999</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -2541,33 +2541,33 @@
         <v>40</v>
       </c>
       <c r="F52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" t="s">
         <v>281</v>
       </c>
-      <c r="G52" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" t="s">
-        <v>282</v>
-      </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -2575,17 +2575,17 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I55">
         <v>999999999</v>
@@ -2619,19 +2619,19 @@
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L60" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" t="s">
         <v>303</v>
-      </c>
-      <c r="M60" t="s">
-        <v>304</v>
       </c>
       <c r="R60" t="b">
         <v>1</v>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -2653,18 +2653,18 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
         <v>50</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
@@ -2685,22 +2685,22 @@
         <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
@@ -2708,22 +2708,22 @@
         <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L67" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67" t="s">
         <v>307</v>
-      </c>
-      <c r="M67" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
@@ -2749,13 +2749,13 @@
         <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" t="s">
         <v>215</v>
       </c>
-      <c r="G71" t="s">
-        <v>216</v>
-      </c>
       <c r="H71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R71" t="b">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -2775,16 +2775,16 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G73" t="s">
+        <v>361</v>
+      </c>
+      <c r="H73" t="s">
         <v>362</v>
-      </c>
-      <c r="H73" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2801,25 +2801,25 @@
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K75" t="s">
+        <v>413</v>
+      </c>
+      <c r="L75" t="s">
         <v>411</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K75" t="s">
-        <v>414</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="M75" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
@@ -2858,33 +2858,33 @@
         <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -2892,33 +2892,33 @@
         <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -2926,33 +2926,33 @@
         <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H85" t="s">
+        <v>300</v>
+      </c>
+      <c r="K85" t="s">
+        <v>297</v>
+      </c>
+      <c r="L85" t="s">
+        <v>310</v>
+      </c>
+      <c r="M85" t="s">
         <v>301</v>
-      </c>
-      <c r="K85" t="s">
-        <v>298</v>
-      </c>
-      <c r="L85" t="s">
-        <v>311</v>
-      </c>
-      <c r="M85" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -2960,16 +2960,16 @@
         <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I88">
         <v>999999999</v>
@@ -2986,16 +2986,16 @@
         <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I91">
         <v>999999999</v>
@@ -3029,19 +3029,19 @@
         <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L95" t="s">
+        <v>404</v>
+      </c>
+      <c r="M95" t="s">
         <v>405</v>
-      </c>
-      <c r="M95" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -3060,22 +3060,22 @@
         <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G97" t="s">
         <v>212</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>213</v>
       </c>
-      <c r="H97" t="s">
-        <v>214</v>
-      </c>
       <c r="K97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L97" t="s">
+        <v>404</v>
+      </c>
+      <c r="M97" t="s">
         <v>405</v>
-      </c>
-      <c r="M97" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -3102,19 +3102,19 @@
         <v>64</v>
       </c>
       <c r="G100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L100" t="s">
+        <v>404</v>
+      </c>
+      <c r="M100" t="s">
         <v>405</v>
-      </c>
-      <c r="M100" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -3137,16 +3137,16 @@
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
+        <v>390</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" t="s">
         <v>392</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>393</v>
-      </c>
-      <c r="H104" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -3167,28 +3167,28 @@
         <v>78</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H107" t="s">
         <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L107" t="s">
+        <v>311</v>
+      </c>
+      <c r="M107" t="s">
         <v>312</v>
       </c>
-      <c r="M107" t="s">
-        <v>313</v>
-      </c>
       <c r="N107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -3199,19 +3199,19 @@
         <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H108" t="s">
         <v>67</v>
       </c>
       <c r="K108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L108" t="s">
+        <v>197</v>
+      </c>
+      <c r="M108" t="s">
         <v>198</v>
-      </c>
-      <c r="M108" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>68</v>
       </c>
       <c r="G111" t="s">
+        <v>125</v>
+      </c>
+      <c r="H111" t="s">
         <v>126</v>
-      </c>
-      <c r="H111" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -3257,19 +3257,19 @@
         <v>63</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H113" t="s">
         <v>71</v>
       </c>
       <c r="K113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L113" t="s">
+        <v>302</v>
+      </c>
+      <c r="M113" t="s">
         <v>303</v>
-      </c>
-      <c r="M113" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -3292,13 +3292,13 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F117" t="s">
         <v>72</v>
       </c>
       <c r="G117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>73</v>
@@ -3309,13 +3309,13 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F118" t="s">
         <v>74</v>
       </c>
       <c r="G118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>75</v>
@@ -3326,13 +3326,13 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F119" t="s">
         <v>77</v>
       </c>
       <c r="G119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>76</v>
@@ -3353,16 +3353,16 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F122" t="s">
         <v>79</v>
       </c>
       <c r="G122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -3370,16 +3370,16 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s">
+        <v>431</v>
+      </c>
+      <c r="G123" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123" t="s">
         <v>80</v>
-      </c>
-      <c r="G123" t="s">
-        <v>133</v>
-      </c>
-      <c r="H123" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -3387,16 +3387,16 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G124" t="s">
+        <v>134</v>
+      </c>
+      <c r="H124" t="s">
         <v>135</v>
-      </c>
-      <c r="H124" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -3414,16 +3414,16 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F127" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" t="s">
         <v>83</v>
-      </c>
-      <c r="G127" t="s">
-        <v>137</v>
-      </c>
-      <c r="H127" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -3431,13 +3431,13 @@
         <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -3455,16 +3455,16 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" t="s">
         <v>144</v>
       </c>
-      <c r="F131" t="s">
-        <v>86</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>145</v>
-      </c>
-      <c r="H131" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -3472,24 +3472,24 @@
         <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s">
+        <v>427</v>
+      </c>
+      <c r="H133" t="s">
         <v>428</v>
-      </c>
-      <c r="H133" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
         <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -3505,13 +3505,13 @@
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G135" t="s">
+        <v>243</v>
+      </c>
+      <c r="H135" t="s">
         <v>244</v>
-      </c>
-      <c r="H135" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -3536,16 +3536,16 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F140" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G140" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H140" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -3566,22 +3566,22 @@
         <v>56</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L143" t="s">
+        <v>404</v>
+      </c>
+      <c r="M143" t="s">
         <v>405</v>
-      </c>
-      <c r="M143" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>59</v>
       </c>
       <c r="C144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -3597,13 +3597,13 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -3619,22 +3619,22 @@
         <v>56</v>
       </c>
       <c r="F147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K147" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L147" t="s">
+        <v>404</v>
+      </c>
+      <c r="M147" t="s">
         <v>405</v>
-      </c>
-      <c r="M147" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>59</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -3650,13 +3650,13 @@
         <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -3669,25 +3669,25 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F151" t="s">
+        <v>383</v>
+      </c>
+      <c r="G151" t="s">
         <v>384</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>385</v>
       </c>
-      <c r="H151" t="s">
-        <v>386</v>
-      </c>
       <c r="K151" t="s">
+        <v>403</v>
+      </c>
+      <c r="L151" t="s">
         <v>404</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>405</v>
-      </c>
-      <c r="M151" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>59</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -3710,10 +3710,10 @@
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I155">
         <v>2</v>
@@ -3724,10 +3724,10 @@
         <v>34</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H156" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>59</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G157" s="2"/>
     </row>
@@ -3744,10 +3744,10 @@
         <v>34</v>
       </c>
       <c r="G158" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H158" t="s">
         <v>320</v>
-      </c>
-      <c r="H158" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>59</v>
       </c>
       <c r="C160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G160" s="2"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>34</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G163" s="2"/>
     </row>
@@ -3796,10 +3796,10 @@
         <v>34</v>
       </c>
       <c r="G164" t="s">
+        <v>388</v>
+      </c>
+      <c r="H164" t="s">
         <v>389</v>
-      </c>
-      <c r="H164" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
@@ -3813,7 +3813,7 @@
         <v>59</v>
       </c>
       <c r="C166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G166" s="2"/>
     </row>
@@ -3822,10 +3822,10 @@
         <v>34</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H167" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>59</v>
       </c>
       <c r="C169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G169" s="2"/>
     </row>
@@ -3848,10 +3848,10 @@
         <v>34</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G172" s="2"/>
     </row>
@@ -3874,10 +3874,10 @@
         <v>34</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G175" s="2"/>
     </row>
@@ -3900,10 +3900,10 @@
         <v>34</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
@@ -3931,22 +3931,22 @@
         <v>40</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K181" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L181" t="s">
         <v>329</v>
       </c>
-      <c r="L181" t="s">
-        <v>330</v>
-      </c>
       <c r="M181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
@@ -3954,33 +3954,33 @@
         <v>40</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K182" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L182" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M182" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F183" t="s">
+        <v>335</v>
+      </c>
+      <c r="I183" t="s">
         <v>336</v>
-      </c>
-      <c r="I183" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.25">
@@ -3988,18 +3988,18 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
+        <v>337</v>
+      </c>
+      <c r="H184" t="s">
         <v>338</v>
-      </c>
-      <c r="H184" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I188" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
@@ -4031,13 +4031,13 @@
         <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q189" t="b">
         <v>0</v>
@@ -4045,36 +4045,36 @@
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F190" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G190" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L190" t="s">
+        <v>404</v>
+      </c>
+      <c r="M190" t="s">
         <v>405</v>
-      </c>
-      <c r="M190" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
@@ -4082,33 +4082,33 @@
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G192" t="s">
+        <v>116</v>
+      </c>
+      <c r="H192" t="s">
         <v>117</v>
       </c>
-      <c r="H192" t="s">
-        <v>118</v>
-      </c>
       <c r="K192" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L192" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M192" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F193" t="s">
         <v>41</v>
       </c>
       <c r="I193" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
@@ -4116,10 +4116,10 @@
         <v>34</v>
       </c>
       <c r="G194" t="s">
+        <v>347</v>
+      </c>
+      <c r="H194" t="s">
         <v>348</v>
-      </c>
-      <c r="H194" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
@@ -4139,19 +4139,19 @@
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D198" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E198" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F198" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G198" t="s">
+        <v>151</v>
+      </c>
+      <c r="H198" t="s">
         <v>93</v>
-      </c>
-      <c r="G198" t="s">
-        <v>152</v>
-      </c>
-      <c r="H198" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
@@ -4159,26 +4159,26 @@
         <v>59</v>
       </c>
       <c r="C199" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D200" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F200" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G200" t="s">
+        <v>152</v>
+      </c>
+      <c r="H200" t="s">
         <v>95</v>
-      </c>
-      <c r="G200" t="s">
-        <v>153</v>
-      </c>
-      <c r="H200" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
@@ -4208,18 +4208,18 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
+        <v>219</v>
+      </c>
+      <c r="H205" t="s">
         <v>220</v>
-      </c>
-      <c r="H205" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -4246,7 +4246,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -4326,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>69</v>
@@ -4356,36 +4356,36 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4393,14 +4393,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>58</v>
@@ -4408,359 +4408,359 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" t="s">
         <v>279</v>
-      </c>
-      <c r="D26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B27" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B28" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" t="s">
         <v>366</v>
-      </c>
-      <c r="D28" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B29" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" t="s">
         <v>368</v>
-      </c>
-      <c r="D29" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B30" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" t="s">
         <v>381</v>
-      </c>
-      <c r="D32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" t="s">
         <v>379</v>
-      </c>
-      <c r="D33" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B34" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
@@ -5141,44 +5141,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5241,9 +5241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,29 +5264,29 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>47</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -5471,10 +5471,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -5559,10 +5559,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -5672,7 +5672,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>47</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>40</v>
@@ -5790,10 +5790,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
@@ -5812,10 +5812,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>51</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s">
         <v>51</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
         <v>51</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6010,10 +6010,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>51</v>
@@ -6066,12 +6066,12 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>51</v>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE8BCC-921E-479A-9F0B-6A1E0C91374E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B7102-2717-4073-9832-FF32CD325CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="433">
   <si>
     <t>setting_name</t>
   </si>
@@ -1340,6 +1340,9 @@
   </si>
   <si>
     <t>TOSSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1920,9 +1923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R208"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,6 +2126,9 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>432</v>
+      </c>
       <c r="D14" t="s">
         <v>165</v>
       </c>
@@ -4246,8 +4252,8 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,7 +5134,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,8 +5247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B7102-2717-4073-9832-FF32CD325CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF0C4D-A8A6-4AB7-8A80-4A5E581DFEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="9" r:id="rId1"/>
-    <sheet name="settings" sheetId="1" r:id="rId2"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="9" r:id="rId2"/>
     <sheet name="inc" sheetId="2" r:id="rId3"/>
     <sheet name="choices" sheetId="3" r:id="rId4"/>
     <sheet name="calculates" sheetId="7" r:id="rId5"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="437">
   <si>
     <t>setting_name</t>
   </si>
@@ -101,9 +103,6 @@
     <t>Portuguese</t>
   </si>
   <si>
-    <t>Portugues</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -170,9 +169,6 @@
     <t>Zona</t>
   </si>
   <si>
-    <t>OBAIRRO</t>
-  </si>
-  <si>
     <t>CAMO</t>
   </si>
   <si>
@@ -197,9 +193,6 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Feminina</t>
-  </si>
-  <si>
     <t>CARTVIS</t>
   </si>
   <si>
@@ -263,9 +256,6 @@
     <t>Diarreia</t>
   </si>
   <si>
-    <t>Vomito</t>
-  </si>
-  <si>
     <t>VOMITO</t>
   </si>
   <si>
@@ -314,9 +304,6 @@
     <t>ENFERMEI</t>
   </si>
   <si>
-    <t>Emfermeira</t>
-  </si>
-  <si>
     <t>ASSISTEN</t>
   </si>
   <si>
@@ -377,9 +364,6 @@
     <t>adate.today()</t>
   </si>
   <si>
-    <t>Outro bairro</t>
-  </si>
-  <si>
     <t>Nome de criança</t>
   </si>
   <si>
@@ -389,9 +373,6 @@
     <t>Número de estudo</t>
   </si>
   <si>
-    <t>Other neighborhood</t>
-  </si>
-  <si>
     <t>Child's name</t>
   </si>
   <si>
@@ -458,9 +439,6 @@
     <t>Can the child be included today?</t>
   </si>
   <si>
-    <t>A criança pode receber vacina (VAS) hoje?</t>
-  </si>
-  <si>
     <t>Porque?</t>
   </si>
   <si>
@@ -546,15 +524,6 @@
   </si>
   <si>
     <t>choice_filter</t>
-  </si>
-  <si>
-    <t>oubairro</t>
-  </si>
-  <si>
-    <t>Doesn't live in the project area</t>
-  </si>
-  <si>
-    <t>Não mora na área do projeto</t>
   </si>
   <si>
     <t>Dont't know</t>
@@ -664,9 +633,6 @@
     <t>Outros sintomas</t>
   </si>
   <si>
-    <t>A criança pode ser incluido hoje?</t>
-  </si>
-  <si>
     <t>Primeiro número de randomização</t>
   </si>
   <si>
@@ -805,30 +771,15 @@
     <t>adate.diffInDays(data('DATINC'), data('INTINICI'))&lt;1 || adate.hasUncertainty(data('INTINICI')) ||data('CONSENT') == '2'</t>
   </si>
   <si>
-    <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) || data('CONSENT') == '2'</t>
-  </si>
-  <si>
     <t>The temperature is greater than 37.9 ({{data.TEMPERATURA}})</t>
   </si>
   <si>
     <t>The nurse assessed that the child should not be included</t>
   </si>
   <si>
-    <t>A criança não deve ser incluída, pois:</t>
-  </si>
-  <si>
     <t>A enfermeira avaliou que a criança não deveria ser incluída</t>
   </si>
   <si>
-    <t>A temperatura é superior a 37,9 ({{data.TEMPERATURA}})</t>
-  </si>
-  <si>
-    <t>A braco é menor que 110 mm ({{data.BRACOCRI}})</t>
-  </si>
-  <si>
-    <t>A Mae/tutor confirmou que a criança não recebeu vacina do sarampo</t>
-  </si>
-  <si>
     <t>Mãe/tutor não pôde confirmar que a criança não recebeu a vacina do sarampo</t>
   </si>
   <si>
@@ -883,18 +834,9 @@
     <t>Didn't suceed to identify ID</t>
   </si>
   <si>
-    <t>Não conseguir identifcar o ID</t>
-  </si>
-  <si>
     <t>REGIDC</t>
   </si>
   <si>
-    <t>ID da equipa movel</t>
-  </si>
-  <si>
-    <t>Equipa movel ID</t>
-  </si>
-  <si>
     <t>idns</t>
   </si>
   <si>
@@ -907,9 +849,6 @@
     <t>data('cnons') != null</t>
   </si>
   <si>
-    <t>Numero de telemovel 1</t>
-  </si>
-  <si>
     <t>Mãe</t>
   </si>
   <si>
@@ -943,15 +882,6 @@
     <t>data('TELEMOVEL2') &gt; 99999999 &amp;&amp; data('TELEMOVEL2') &lt; 1000000000 || data('CONSENT') == '2'</t>
   </si>
   <si>
-    <t>Numero de telemovel 2</t>
-  </si>
-  <si>
-    <t>Numero de telemovel 3</t>
-  </si>
-  <si>
-    <t>Deve ter 9 números:</t>
-  </si>
-  <si>
     <t>The date cannot be in the future:</t>
   </si>
   <si>
@@ -961,9 +891,6 @@
     <t>Must be 7 digits long:</t>
   </si>
   <si>
-    <t>Deve ter 7 números:</t>
-  </si>
-  <si>
     <t>Must be less than 13:</t>
   </si>
   <si>
@@ -1027,9 +954,6 @@
     <t>data('TELEINF3') == '3'</t>
   </si>
   <si>
-    <t>Não tene ID</t>
-  </si>
-  <si>
     <t>data('RANDOM2')&lt;501 &amp;&amp; data('RANDOM1')&gt;0 || data('INC') == '2'</t>
   </si>
   <si>
@@ -1111,9 +1035,6 @@
     <t>Don't have ID</t>
   </si>
   <si>
-    <t>Deve ter 5 números:</t>
-  </si>
-  <si>
     <t>Must be 5 digits long:</t>
   </si>
   <si>
@@ -1213,9 +1134,6 @@
     <t>The child already participating in the study</t>
   </si>
   <si>
-    <t>A criança que já participa do estudo</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -1234,9 +1152,6 @@
     <t>data('regnons') != null</t>
   </si>
   <si>
-    <t>A mãe/pai/tutor aceitar inclusão no estudo?</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -1282,30 +1197,18 @@
     <t>A witness has to sign the consent form:</t>
   </si>
   <si>
-    <t>Um testemunho deve ser assinar o formulário de consentimento:</t>
-  </si>
-  <si>
     <t>selected(data('TESTEMUNHO'),'1') || data('CONSENTTIPO') != '2'</t>
   </si>
   <si>
     <t>OUBAIRRO</t>
   </si>
   <si>
-    <t>data('OUBAIRRO') != null</t>
-  </si>
-  <si>
     <t>NUM</t>
   </si>
   <si>
     <t>HORA</t>
   </si>
   <si>
-    <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('OUBAIRRO') != null</t>
-  </si>
-  <si>
-    <t>data('REGIDC') &gt; 99999999 &amp;&amp; data('REGIDC') &lt; 1000000000 || data('OUBAIRRO') == null</t>
-  </si>
-  <si>
     <t>data('NUM')&gt;0 || data('INC') == '2' || data('changeid') != null || data('changetabz') != null</t>
   </si>
   <si>
@@ -1315,12 +1218,6 @@
     <t>adate.hoursMinutes(data('HORA'))</t>
   </si>
   <si>
-    <t>data('OUBAIRRO') == null</t>
-  </si>
-  <si>
-    <t>data('OUBAIRRO') != null || freebase.characters(data('CNO')) == 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">data('HORVACVAS') != null || data('INC') == '2' </t>
   </si>
   <si>
@@ -1333,9 +1230,6 @@
     <t>Qual tratamento foi dado?</t>
   </si>
   <si>
-    <t>Por vor tirar foto da receita</t>
-  </si>
-  <si>
     <t>If the child have a prescription, please take a photo</t>
   </si>
   <si>
@@ -1343,6 +1237,126 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Deve ter 5 dígitos:</t>
+  </si>
+  <si>
+    <t>Deve ter 7 dígitos:</t>
+  </si>
+  <si>
+    <t>Deve ter 9 dígitos:</t>
+  </si>
+  <si>
+    <t>ID da equipa móvel</t>
+  </si>
+  <si>
+    <t>Equipa móvel ID</t>
+  </si>
+  <si>
+    <t>A mãe/pai/tutor aceita inclusão no estudo?</t>
+  </si>
+  <si>
+    <t>Um testemunho deve assinar o formulário de consentimento:</t>
+  </si>
+  <si>
+    <t>Número de telemovel 1</t>
+  </si>
+  <si>
+    <t>Número de telemovel 2</t>
+  </si>
+  <si>
+    <t>Número de telemovel 3</t>
+  </si>
+  <si>
+    <t>A mãe/tutor confirmou que a criança não recebeu a vacina do sarampo</t>
+  </si>
+  <si>
+    <t>Vômito</t>
+  </si>
+  <si>
+    <t>Se a criança tiver uma receita médica, por favor tire uma foto</t>
+  </si>
+  <si>
+    <t>A criança pode receber uma vacina (VAS) hoje?</t>
+  </si>
+  <si>
+    <t>A criança pode ser incluída hoje?</t>
+  </si>
+  <si>
+    <t>A criança não deve ser incluída, porque:</t>
+  </si>
+  <si>
+    <t>A criança já participa no estudo</t>
+  </si>
+  <si>
+    <t>A braço é menor do que 110 mm ({{data.BRACOCRI}})</t>
+  </si>
+  <si>
+    <t>A temperatura é mais alta do que 37,9 ({{data.TEMPERATURA}})</t>
+  </si>
+  <si>
+    <t>Enfermeira</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Não conseguiu identifcar o ID</t>
+  </si>
+  <si>
+    <t>Não tem ID</t>
+  </si>
+  <si>
+    <t>Neighborhood outside project area</t>
+  </si>
+  <si>
+    <t>Bairro fora da área do projeto</t>
+  </si>
+  <si>
+    <t>data('BAIRRO') == 77</t>
+  </si>
+  <si>
+    <t>data('TABZ') == 7777</t>
+  </si>
+  <si>
+    <t>Pleace describe how to find the house</t>
+  </si>
+  <si>
+    <t>Por favor, descreva como encontrar a casa</t>
+  </si>
+  <si>
+    <t>What neighborhood?</t>
+  </si>
+  <si>
+    <t>Que bairro?</t>
+  </si>
+  <si>
+    <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) || data('CONSENT') == '2' || data('BRACOCRI') == 999</t>
+  </si>
+  <si>
+    <t>data('BAIRRO') == 77 || freebase.characters(data('CNO')) == 5</t>
+  </si>
+  <si>
+    <t>data('BAIRRO') != 77</t>
+  </si>
+  <si>
+    <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('BAIRRO') == 77</t>
+  </si>
+  <si>
+    <t>data('REGIDC') &gt; 99999999 &amp;&amp; data('REGIDC') &lt; 1000000000 || data('BAIRRO') != 77</t>
+  </si>
+  <si>
+    <t>data('CAMOONDE') != null || data('TABZ') == 7777 || data('CAMO') != 9999</t>
+  </si>
+  <si>
+    <t>data('CAMO') != null || data('CAMOONDE') != null</t>
+  </si>
+  <si>
+    <t>OBS</t>
   </si>
 </sst>
 </file>
@@ -1747,6 +1761,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>60120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C25D9-A5CA-4B9E-8C37-7E543018B8F4}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1769,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1787,21 +1911,21 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1809,123 +1933,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>60120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1967,40 +1981,40 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2010,38 +2024,38 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -2059,1170 +2073,1177 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>414</v>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>415</v>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-      <c r="I11">
-        <v>77</v>
-      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
+        <v>384</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>432</v>
-      </c>
       <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>184</v>
+        <v>269</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K14" t="s">
+        <v>434</v>
+      </c>
+      <c r="L14" t="s">
+        <v>436</v>
+      </c>
+      <c r="M14" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" t="s">
-        <v>345</v>
+      <c r="B15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
       <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" t="s">
+        <v>319</v>
+      </c>
+      <c r="K19" t="s">
+        <v>435</v>
+      </c>
+      <c r="L19" t="s">
+        <v>436</v>
+      </c>
+      <c r="M19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" t="s">
+        <v>434</v>
+      </c>
+      <c r="L23" t="s">
+        <v>436</v>
+      </c>
+      <c r="M23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" t="s">
+        <v>329</v>
+      </c>
+      <c r="M25" t="s">
+        <v>398</v>
+      </c>
+      <c r="P25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H34" t="s">
+        <v>291</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>280</v>
+      </c>
+      <c r="M50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53">
+        <v>9999999</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G56" t="s">
+        <v>402</v>
+      </c>
+      <c r="H56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>285</v>
+      </c>
+      <c r="M56" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" t="s">
         <v>292</v>
-      </c>
-      <c r="H19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" t="s">
-        <v>276</v>
-      </c>
-      <c r="K21" t="s">
-        <v>424</v>
-      </c>
-      <c r="L21" t="s">
-        <v>356</v>
-      </c>
-      <c r="M21" t="s">
-        <v>355</v>
-      </c>
-      <c r="P21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" t="s">
-        <v>276</v>
-      </c>
-      <c r="I24">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
-      </c>
-      <c r="R29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H30" t="s">
-        <v>316</v>
-      </c>
-      <c r="R30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" t="s">
-        <v>377</v>
-      </c>
-      <c r="F34" t="s">
-        <v>374</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>382</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>375</v>
-      </c>
-      <c r="H36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>423</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H46" t="s">
-        <v>203</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L46" t="s">
-        <v>304</v>
-      </c>
-      <c r="M46" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" t="s">
-        <v>283</v>
-      </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>284</v>
-      </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49">
-        <v>9999999</v>
-      </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>182</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s">
-        <v>280</v>
-      </c>
-      <c r="G52" t="s">
-        <v>282</v>
-      </c>
-      <c r="H52" t="s">
-        <v>281</v>
-      </c>
-      <c r="K52" t="s">
-        <v>419</v>
-      </c>
-      <c r="L52" t="s">
-        <v>310</v>
-      </c>
-      <c r="M52" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" t="s">
-        <v>280</v>
-      </c>
-      <c r="I55">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>13</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>12</v>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59">
+        <v>999999999</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K60" t="s">
-        <v>295</v>
-      </c>
-      <c r="L60" t="s">
-        <v>302</v>
-      </c>
-      <c r="M60" t="s">
-        <v>303</v>
-      </c>
-      <c r="R60" t="b">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>108</v>
+      <c r="B61" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>112</v>
+      <c r="B63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>61</v>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64" t="s">
+        <v>274</v>
+      </c>
+      <c r="L64" t="s">
+        <v>278</v>
+      </c>
+      <c r="M64" t="s">
+        <v>279</v>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>106</v>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" t="s">
-        <v>188</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L66" t="s">
-        <v>309</v>
-      </c>
-      <c r="M66" t="s">
-        <v>308</v>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" t="s">
-        <v>187</v>
-      </c>
-      <c r="H67" t="s">
-        <v>189</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L67" t="s">
-        <v>306</v>
-      </c>
-      <c r="M67" t="s">
-        <v>307</v>
+        <v>48</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>12</v>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
+        <v>177</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L70" t="s">
+        <v>284</v>
+      </c>
+      <c r="M70" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>214</v>
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s">
-        <v>396</v>
-      </c>
-      <c r="R71" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L71" t="s">
+        <v>281</v>
+      </c>
+      <c r="M71" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" t="s">
-        <v>364</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G73" t="s">
-        <v>361</v>
-      </c>
-      <c r="H73" t="s">
-        <v>362</v>
+      <c r="B73" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>406</v>
-      </c>
-      <c r="F74" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>410</v>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="K75" t="s">
-        <v>413</v>
-      </c>
-      <c r="L75" t="s">
-        <v>411</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>412</v>
+        <v>202</v>
+      </c>
+      <c r="G75" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75" t="s">
+        <v>403</v>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>337</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G77" t="s">
+        <v>334</v>
+      </c>
+      <c r="H77" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>377</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
+      <c r="D79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K79" t="s">
+        <v>383</v>
+      </c>
+      <c r="L79" t="s">
+        <v>382</v>
+      </c>
+      <c r="M79" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H81" t="s">
-        <v>287</v>
-      </c>
-      <c r="K81" t="s">
-        <v>296</v>
-      </c>
-      <c r="L81" t="s">
-        <v>310</v>
-      </c>
-      <c r="M81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>245</v>
-      </c>
-      <c r="E82" t="s">
-        <v>321</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G83" t="s">
-        <v>274</v>
-      </c>
-      <c r="H83" t="s">
-        <v>299</v>
-      </c>
-      <c r="K83" t="s">
-        <v>298</v>
-      </c>
-      <c r="L83" t="s">
-        <v>310</v>
-      </c>
-      <c r="M83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" t="s">
-        <v>322</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G85" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85" t="s">
+        <v>405</v>
+      </c>
+      <c r="K85" t="s">
         <v>275</v>
       </c>
-      <c r="H85" t="s">
-        <v>300</v>
-      </c>
-      <c r="K85" t="s">
-        <v>297</v>
-      </c>
       <c r="L85" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="M85" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" t="s">
-        <v>325</v>
-      </c>
-      <c r="F87" s="2"/>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" t="s">
+        <v>257</v>
+      </c>
+      <c r="H87" t="s">
+        <v>406</v>
+      </c>
+      <c r="K87" t="s">
+        <v>277</v>
+      </c>
+      <c r="L87" t="s">
+        <v>285</v>
+      </c>
+      <c r="M87" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>111</v>
+        <v>233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>297</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I88">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" t="s">
+        <v>258</v>
+      </c>
+      <c r="H89" t="s">
+        <v>407</v>
+      </c>
+      <c r="K89" t="s">
+        <v>276</v>
+      </c>
+      <c r="L89" t="s">
+        <v>285</v>
+      </c>
+      <c r="M89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" t="s">
+        <v>297</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I92">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" t="s">
-        <v>326</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>111</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I91">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>12</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E95" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" t="s">
-        <v>55</v>
-      </c>
-      <c r="G95" t="s">
-        <v>147</v>
-      </c>
-      <c r="H95" t="s">
-        <v>146</v>
-      </c>
-      <c r="K95" t="s">
-        <v>398</v>
-      </c>
-      <c r="L95" t="s">
-        <v>404</v>
-      </c>
-      <c r="M95" t="s">
-        <v>405</v>
+        <v>106</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I95">
+        <v>999999999</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>51</v>
-      </c>
-      <c r="E97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G97" t="s">
-        <v>212</v>
-      </c>
-      <c r="H97" t="s">
-        <v>213</v>
-      </c>
-      <c r="K97" t="s">
-        <v>399</v>
-      </c>
-      <c r="L97" t="s">
-        <v>404</v>
-      </c>
-      <c r="M97" t="s">
-        <v>405</v>
-      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" t="s">
-        <v>62</v>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" t="s">
+        <v>139</v>
+      </c>
+      <c r="H99" t="s">
+        <v>138</v>
+      </c>
+      <c r="K99" t="s">
+        <v>369</v>
+      </c>
+      <c r="L99" t="s">
+        <v>375</v>
+      </c>
+      <c r="M99" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="B100" t="s">
         <v>56</v>
       </c>
-      <c r="F100" t="s">
-        <v>64</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
-      <c r="H100" t="s">
-        <v>260</v>
-      </c>
-      <c r="K100" t="s">
-        <v>400</v>
-      </c>
-      <c r="L100" t="s">
-        <v>404</v>
-      </c>
-      <c r="M100" t="s">
-        <v>405</v>
+      <c r="C100" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>61</v>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101" t="s">
+        <v>201</v>
+      </c>
+      <c r="K101" t="s">
+        <v>370</v>
+      </c>
+      <c r="L101" t="s">
+        <v>375</v>
+      </c>
+      <c r="M101" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" t="s">
         <v>59</v>
-      </c>
-      <c r="C103" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>390</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>391</v>
+        <v>49</v>
+      </c>
+      <c r="E104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" t="s">
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>392</v>
+        <v>115</v>
       </c>
       <c r="H104" t="s">
-        <v>393</v>
+        <v>408</v>
+      </c>
+      <c r="K104" t="s">
+        <v>371</v>
+      </c>
+      <c r="L104" t="s">
+        <v>375</v>
+      </c>
+      <c r="M104" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>47</v>
-      </c>
-      <c r="F107" t="s">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s">
-        <v>123</v>
-      </c>
-      <c r="H107" t="s">
-        <v>65</v>
-      </c>
-      <c r="K107" t="s">
-        <v>251</v>
-      </c>
-      <c r="L107" t="s">
-        <v>311</v>
-      </c>
-      <c r="M107" t="s">
-        <v>312</v>
-      </c>
-      <c r="N107" t="s">
-        <v>196</v>
-      </c>
-      <c r="O107" t="s">
-        <v>195</v>
-      </c>
-      <c r="P107" t="s">
-        <v>250</v>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" t="s">
-        <v>66</v>
+        <v>362</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G108" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="H108" t="s">
-        <v>67</v>
-      </c>
-      <c r="K108" t="s">
-        <v>253</v>
-      </c>
-      <c r="L108" t="s">
-        <v>197</v>
-      </c>
-      <c r="M108" t="s">
-        <v>198</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -3232,1013 +3253,1078 @@
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>51</v>
-      </c>
-      <c r="E111" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>62</v>
+      </c>
+      <c r="K111" t="s">
+        <v>239</v>
+      </c>
+      <c r="L111" t="s">
+        <v>286</v>
+      </c>
+      <c r="M111" t="s">
+        <v>287</v>
+      </c>
+      <c r="N111" t="s">
+        <v>185</v>
+      </c>
+      <c r="O111" t="s">
+        <v>184</v>
+      </c>
+      <c r="P111" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112" t="s">
+        <v>64</v>
+      </c>
+      <c r="K112" t="s">
+        <v>429</v>
+      </c>
+      <c r="L112" t="s">
+        <v>186</v>
+      </c>
+      <c r="M112" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>32</v>
-      </c>
-      <c r="F113" t="s">
-        <v>63</v>
-      </c>
-      <c r="G113" t="s">
-        <v>127</v>
-      </c>
-      <c r="H113" t="s">
-        <v>71</v>
-      </c>
-      <c r="K113" t="s">
-        <v>252</v>
-      </c>
-      <c r="L113" t="s">
-        <v>302</v>
-      </c>
-      <c r="M113" t="s">
-        <v>303</v>
+      <c r="B113" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>13</v>
+      <c r="D115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" t="s">
+        <v>118</v>
+      </c>
+      <c r="H115" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>128</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
+      </c>
+      <c r="H117" t="s">
+        <v>68</v>
+      </c>
+      <c r="K117" t="s">
+        <v>240</v>
+      </c>
+      <c r="L117" t="s">
+        <v>278</v>
+      </c>
+      <c r="M117" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>51</v>
-      </c>
-      <c r="E118" t="s">
-        <v>143</v>
-      </c>
-      <c r="F118" t="s">
-        <v>74</v>
-      </c>
-      <c r="G118" t="s">
-        <v>129</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>75</v>
+      <c r="B118" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>51</v>
-      </c>
-      <c r="E119" t="s">
-        <v>143</v>
-      </c>
-      <c r="F119" t="s">
-        <v>77</v>
-      </c>
-      <c r="G119" t="s">
-        <v>130</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>76</v>
+      <c r="B119" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>12</v>
+      <c r="D121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" t="s">
+        <v>121</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G122" t="s">
-        <v>133</v>
-      </c>
-      <c r="H122" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F123" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" t="s">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>51</v>
-      </c>
-      <c r="E124" t="s">
-        <v>143</v>
-      </c>
-      <c r="F124" t="s">
-        <v>81</v>
-      </c>
-      <c r="G124" t="s">
-        <v>134</v>
-      </c>
-      <c r="H124" t="s">
-        <v>135</v>
+      <c r="B124" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>12</v>
+      <c r="D126" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" t="s">
+        <v>75</v>
+      </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="G127" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H127" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E128" t="s">
+        <v>135</v>
       </c>
       <c r="F128" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E131" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F131" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G131" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" t="s">
-        <v>221</v>
-      </c>
-      <c r="F133" t="s">
-        <v>87</v>
-      </c>
-      <c r="G133" t="s">
-        <v>427</v>
-      </c>
-      <c r="H133" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>80</v>
+      </c>
+      <c r="G132" t="s">
+        <v>130</v>
+      </c>
+      <c r="H132" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E135" t="s">
+        <v>135</v>
       </c>
       <c r="F135" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="G135" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C136" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
+        <v>209</v>
+      </c>
+      <c r="F137" t="s">
+        <v>83</v>
+      </c>
+      <c r="G137" t="s">
+        <v>392</v>
+      </c>
+      <c r="H137" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>218</v>
+      </c>
+      <c r="G139" t="s">
+        <v>231</v>
+      </c>
+      <c r="H139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>390</v>
-      </c>
-      <c r="F140" t="s">
-        <v>426</v>
-      </c>
-      <c r="G140" t="s">
-        <v>430</v>
-      </c>
-      <c r="H140" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>362</v>
+      </c>
+      <c r="F144" t="s">
+        <v>391</v>
+      </c>
+      <c r="G144" t="s">
+        <v>394</v>
+      </c>
+      <c r="H144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>51</v>
-      </c>
-      <c r="E143" t="s">
-        <v>56</v>
-      </c>
-      <c r="F143" t="s">
-        <v>88</v>
-      </c>
-      <c r="G143" t="s">
-        <v>139</v>
-      </c>
-      <c r="H143" t="s">
-        <v>141</v>
-      </c>
-      <c r="K143" t="s">
-        <v>401</v>
-      </c>
-      <c r="L143" t="s">
-        <v>404</v>
-      </c>
-      <c r="M143" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>59</v>
-      </c>
-      <c r="C144" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" t="s">
-        <v>89</v>
-      </c>
-      <c r="G145" t="s">
-        <v>138</v>
-      </c>
-      <c r="H145" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E147" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F147" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G147" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H147" t="s">
-        <v>206</v>
+        <v>411</v>
       </c>
       <c r="K147" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="L147" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="M147" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C148" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="G149" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H149" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E151" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="F151" t="s">
-        <v>383</v>
+        <v>97</v>
       </c>
       <c r="G151" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="H151" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="K151" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="L151" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="M151" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" t="s">
-        <v>386</v>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="F153" t="s">
+        <v>145</v>
+      </c>
+      <c r="G153" t="s">
+        <v>131</v>
+      </c>
+      <c r="H153" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>111</v>
+        <v>49</v>
+      </c>
+      <c r="E155" t="s">
+        <v>135</v>
       </c>
       <c r="F155" t="s">
-        <v>232</v>
-      </c>
-      <c r="I155">
-        <v>2</v>
+        <v>356</v>
+      </c>
+      <c r="G155" t="s">
+        <v>357</v>
+      </c>
+      <c r="H155" t="s">
+        <v>358</v>
+      </c>
+      <c r="K155" t="s">
+        <v>374</v>
+      </c>
+      <c r="L155" t="s">
+        <v>375</v>
+      </c>
+      <c r="M155" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H156" t="s">
-        <v>256</v>
+      <c r="B156" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C157" t="s">
-        <v>96</v>
-      </c>
-      <c r="G157" s="2"/>
+        <v>359</v>
+      </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H158" t="s">
-        <v>320</v>
+      <c r="B158" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>61</v>
-      </c>
-      <c r="G159" s="2"/>
+      <c r="D159" t="s">
+        <v>106</v>
+      </c>
+      <c r="F159" t="s">
+        <v>220</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" t="s">
-        <v>103</v>
-      </c>
-      <c r="G160" s="2"/>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H160" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
-        <v>34</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H161" t="s">
-        <v>257</v>
-      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" s="2"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>61</v>
-      </c>
-      <c r="G162" s="2"/>
+      <c r="D162" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H162" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" t="s">
-        <v>388</v>
-      </c>
-      <c r="H164" t="s">
-        <v>389</v>
-      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>98</v>
+      </c>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>61</v>
-      </c>
-      <c r="G165" s="2"/>
+      <c r="D165" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H165" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>59</v>
-      </c>
-      <c r="C166" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H167" t="s">
-        <v>259</v>
-      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>360</v>
+      </c>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>61</v>
-      </c>
-      <c r="G168" s="2"/>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" t="s">
+        <v>361</v>
+      </c>
+      <c r="H168" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H170" t="s">
-        <v>258</v>
-      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" t="s">
+        <v>221</v>
+      </c>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>61</v>
-      </c>
-      <c r="G171" s="2"/>
+      <c r="D171" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H171" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
-        <v>34</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H173" t="s">
-        <v>261</v>
-      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>223</v>
+      </c>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>61</v>
-      </c>
-      <c r="G174" s="2"/>
+      <c r="D174" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H174" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
-        <v>34</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H176" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" t="s">
+        <v>225</v>
+      </c>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H177" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
+        <v>58</v>
+      </c>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" t="s">
+        <v>227</v>
+      </c>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D181" t="s">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>39</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H185" t="s">
+        <v>195</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L185" t="s">
+        <v>303</v>
+      </c>
+      <c r="M185" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>196</v>
+      </c>
+      <c r="K186" t="s">
+        <v>229</v>
+      </c>
+      <c r="L186" t="s">
+        <v>304</v>
+      </c>
+      <c r="M186" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>106</v>
+      </c>
+      <c r="F187" t="s">
+        <v>309</v>
+      </c>
+      <c r="I187" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" t="s">
+        <v>311</v>
+      </c>
+      <c r="H188" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>106</v>
+      </c>
+      <c r="F189" t="s">
+        <v>220</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>106</v>
+      </c>
+      <c r="F192" t="s">
+        <v>86</v>
+      </c>
+      <c r="I192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" t="s">
+        <v>86</v>
+      </c>
+      <c r="G193" t="s">
+        <v>141</v>
+      </c>
+      <c r="H193" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>236</v>
+      </c>
+      <c r="F194" t="s">
+        <v>386</v>
+      </c>
+      <c r="G194" t="s">
+        <v>219</v>
+      </c>
+      <c r="H194" t="s">
+        <v>142</v>
+      </c>
+      <c r="K194" t="s">
+        <v>390</v>
+      </c>
+      <c r="L194" t="s">
+        <v>375</v>
+      </c>
+      <c r="M194" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>106</v>
+      </c>
+      <c r="F195" t="s">
+        <v>87</v>
+      </c>
+      <c r="I195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" t="s">
+        <v>385</v>
+      </c>
+      <c r="G196" t="s">
+        <v>110</v>
+      </c>
+      <c r="H196" t="s">
+        <v>111</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L196" t="s">
+        <v>305</v>
+      </c>
+      <c r="M196" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>106</v>
+      </c>
+      <c r="F197" t="s">
         <v>40</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="I197" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" t="s">
+        <v>321</v>
+      </c>
+      <c r="H198" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D202" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E202" t="s">
+        <v>197</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G202" t="s">
+        <v>143</v>
+      </c>
+      <c r="H202" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" t="s">
+        <v>230</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D204" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E204" t="s">
+        <v>198</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G204" t="s">
+        <v>144</v>
+      </c>
+      <c r="H204" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" t="s">
         <v>207</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L181" t="s">
-        <v>329</v>
-      </c>
-      <c r="M181" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
-        <v>40</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="H209" t="s">
         <v>208</v>
       </c>
-      <c r="K182" t="s">
-        <v>241</v>
-      </c>
-      <c r="L182" t="s">
-        <v>330</v>
-      </c>
-      <c r="M182" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D183" t="s">
-        <v>111</v>
-      </c>
-      <c r="F183" t="s">
-        <v>335</v>
-      </c>
-      <c r="I183" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D184" t="s">
-        <v>34</v>
-      </c>
-      <c r="G184" t="s">
-        <v>337</v>
-      </c>
-      <c r="H184" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D185" t="s">
-        <v>111</v>
-      </c>
-      <c r="F185" t="s">
-        <v>232</v>
-      </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>106</v>
+      </c>
+      <c r="F210" t="s">
+        <v>220</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D188" t="s">
-        <v>111</v>
-      </c>
-      <c r="F188" t="s">
-        <v>90</v>
-      </c>
-      <c r="I188" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D189" t="s">
-        <v>32</v>
-      </c>
-      <c r="F189" t="s">
-        <v>90</v>
-      </c>
-      <c r="G189" t="s">
-        <v>149</v>
-      </c>
-      <c r="H189" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D190" t="s">
-        <v>248</v>
-      </c>
-      <c r="F190" t="s">
-        <v>417</v>
-      </c>
-      <c r="G190" t="s">
-        <v>231</v>
-      </c>
-      <c r="H190" t="s">
-        <v>150</v>
-      </c>
-      <c r="K190" t="s">
-        <v>425</v>
-      </c>
-      <c r="L190" t="s">
-        <v>404</v>
-      </c>
-      <c r="M190" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D191" t="s">
-        <v>111</v>
-      </c>
-      <c r="F191" t="s">
-        <v>91</v>
-      </c>
-      <c r="I191" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D192" t="s">
-        <v>40</v>
-      </c>
-      <c r="F192" t="s">
-        <v>416</v>
-      </c>
-      <c r="G192" t="s">
-        <v>116</v>
-      </c>
-      <c r="H192" t="s">
-        <v>117</v>
-      </c>
-      <c r="K192" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L192" t="s">
-        <v>331</v>
-      </c>
-      <c r="M192" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D193" t="s">
-        <v>111</v>
-      </c>
-      <c r="F193" t="s">
-        <v>41</v>
-      </c>
-      <c r="I193" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D194" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" t="s">
-        <v>347</v>
-      </c>
-      <c r="H194" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D198" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E198" t="s">
-        <v>209</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G198" t="s">
-        <v>151</v>
-      </c>
-      <c r="H198" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>59</v>
-      </c>
-      <c r="C199" t="s">
-        <v>242</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D200" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E200" t="s">
-        <v>210</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G200" t="s">
-        <v>152</v>
-      </c>
-      <c r="H200" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D205" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" t="s">
-        <v>219</v>
-      </c>
-      <c r="H205" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D206" t="s">
-        <v>111</v>
-      </c>
-      <c r="F206" t="s">
-        <v>232</v>
-      </c>
-      <c r="I206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>61</v>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4249,11 +4335,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -4280,497 +4366,485 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B12" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>353</v>
+      <c r="C13" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>360</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B16" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="C20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="C21" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>322</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"99"</f>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>324</v>
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>277</v>
+      <c r="A26" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B26" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" t="s">
-        <v>279</v>
+        <v>328</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" t="s">
         <v>339</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B28" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>367</v>
-      </c>
-      <c r="D29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>377</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>380</v>
-      </c>
-      <c r="D32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -4816,10 +4890,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="D56" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
@@ -4913,6 +4987,7 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
@@ -4939,10 +5014,10 @@
       <c r="C94" s="9"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
       <c r="C96" s="9"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -5015,7 +5090,6 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
@@ -5035,8 +5109,8 @@
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
@@ -5088,9 +5162,6 @@
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5116,10 +5187,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5133,8 +5204,8 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,44 +5218,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5211,30 +5282,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5245,11 +5316,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,29 +5341,29 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5300,10 +5371,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5311,10 +5382,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5322,10 +5393,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -5333,10 +5404,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -5344,10 +5415,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5355,10 +5426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5366,10 +5437,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5377,10 +5448,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -5388,10 +5459,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -5400,10 +5471,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -5411,10 +5482,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5422,10 +5493,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -5433,10 +5504,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5444,10 +5515,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5455,10 +5526,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -5466,10 +5537,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5477,10 +5548,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -5488,10 +5559,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5499,10 +5570,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -5510,10 +5581,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5521,10 +5592,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5532,10 +5603,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5543,10 +5614,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -5554,10 +5625,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -5565,10 +5636,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -5576,10 +5647,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5587,10 +5658,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5598,10 +5669,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5609,10 +5680,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5620,10 +5691,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5631,10 +5702,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5642,10 +5713,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5653,10 +5724,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5664,10 +5735,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5675,10 +5746,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5686,10 +5757,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5697,10 +5768,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5708,10 +5779,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5719,10 +5790,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>414</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5730,10 +5801,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5741,10 +5812,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
+        <v>309</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5752,10 +5823,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>335</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5763,10 +5834,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5774,10 +5845,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
+        <v>262</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5785,54 +5856,54 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>40</v>
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -5840,10 +5911,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -5851,10 +5922,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5862,10 +5933,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -5873,21 +5944,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>165</v>
+      <c r="A57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -5895,10 +5966,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -5906,10 +5977,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -5917,10 +5988,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5928,10 +5999,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -5939,54 +6010,54 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>271</v>
+      <c r="A63" t="s">
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" t="b">
+      <c r="A64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="15" t="b">
+      <c r="A65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -5994,10 +6065,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
+        <v>391</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -6005,10 +6076,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>426</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>390</v>
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6016,10 +6087,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6027,10 +6098,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -6038,53 +6109,45 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
+      <c r="A73" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
-      <c r="D74" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>341</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
@@ -6215,14 +6278,8 @@
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF0C4D-A8A6-4AB7-8A80-4A5E581DFEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DA9AB-7CDC-434A-B08B-B9A7CFFC7086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="440">
   <si>
     <t>setting_name</t>
   </si>
@@ -1044,12 +1044,6 @@
     <t>Data de inclusão</t>
   </si>
   <si>
-    <t>Suzete Correia</t>
-  </si>
-  <si>
-    <t>Fatima Caram Cassamá</t>
-  </si>
-  <si>
     <t>Type of signature</t>
   </si>
   <si>
@@ -1357,6 +1351,21 @@
   </si>
   <si>
     <t>OBS</t>
+  </si>
+  <si>
+    <t>Abrao</t>
+  </si>
+  <si>
+    <t>Suzete</t>
+  </si>
+  <si>
+    <t>Augosto Da Costa</t>
+  </si>
+  <si>
+    <t>Abdel</t>
+  </si>
+  <si>
+    <t>Fatima</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1851,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -2014,7 +2023,7 @@
         <v>323</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2093,7 +2102,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2107,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>173</v>
@@ -2121,7 +2130,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2132,13 +2141,13 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2156,19 +2165,19 @@
         <v>269</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K14" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" t="s">
         <v>434</v>
       </c>
-      <c r="L14" t="s">
-        <v>436</v>
-      </c>
       <c r="M14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2195,7 +2204,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D18" t="s">
         <v>157</v>
@@ -2231,13 +2240,13 @@
         <v>319</v>
       </c>
       <c r="K19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2287,13 +2296,13 @@
         <v>270</v>
       </c>
       <c r="K23" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" t="s">
         <v>434</v>
       </c>
-      <c r="L23" t="s">
-        <v>436</v>
-      </c>
       <c r="M23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2317,13 +2326,13 @@
         <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L25" t="s">
         <v>329</v>
       </c>
       <c r="M25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P25" t="s">
         <v>238</v>
@@ -2425,13 +2434,13 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
@@ -2451,16 +2460,16 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -2468,7 +2477,7 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -2480,10 +2489,10 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
@@ -2524,7 +2533,7 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
@@ -2532,7 +2541,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
@@ -2556,7 +2565,7 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -2574,13 +2583,13 @@
         <v>192</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s">
         <v>280</v>
       </c>
       <c r="M50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,19 +2645,19 @@
         <v>262</v>
       </c>
       <c r="G56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s">
         <v>285</v>
       </c>
       <c r="M56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -2847,7 +2856,7 @@
         <v>203</v>
       </c>
       <c r="H75" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R75" t="b">
         <v>1</v>
@@ -2867,16 +2876,16 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
@@ -2884,7 +2893,7 @@
         <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2893,25 +2902,25 @@
         <v>49</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K79" t="s">
         <v>381</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="L79" t="s">
         <v>380</v>
       </c>
-      <c r="K79" t="s">
-        <v>383</v>
-      </c>
-      <c r="L79" t="s">
-        <v>382</v>
-      </c>
       <c r="M79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
@@ -2956,7 +2965,7 @@
         <v>256</v>
       </c>
       <c r="H85" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K85" t="s">
         <v>275</v>
@@ -2965,7 +2974,7 @@
         <v>285</v>
       </c>
       <c r="M85" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -2990,7 +2999,7 @@
         <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K87" t="s">
         <v>277</v>
@@ -2999,7 +3008,7 @@
         <v>285</v>
       </c>
       <c r="M87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -3024,7 +3033,7 @@
         <v>258</v>
       </c>
       <c r="H89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K89" t="s">
         <v>276</v>
@@ -3033,7 +3042,7 @@
         <v>285</v>
       </c>
       <c r="M89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -3127,13 +3136,13 @@
         <v>138</v>
       </c>
       <c r="K99" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -3161,13 +3170,13 @@
         <v>201</v>
       </c>
       <c r="K101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L101" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -3197,16 +3206,16 @@
         <v>115</v>
       </c>
       <c r="H104" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L104" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -3229,16 +3238,16 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G108" t="s">
         <v>362</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="H108" t="s">
         <v>363</v>
-      </c>
-      <c r="G108" t="s">
-        <v>364</v>
-      </c>
-      <c r="H108" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -3297,7 +3306,7 @@
         <v>64</v>
       </c>
       <c r="K112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L112" t="s">
         <v>186</v>
@@ -3427,7 +3436,7 @@
         <v>123</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -3465,7 +3474,7 @@
         <v>135</v>
       </c>
       <c r="F127" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G127" t="s">
         <v>125</v>
@@ -3578,10 +3587,10 @@
         <v>83</v>
       </c>
       <c r="G137" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -3628,16 +3637,16 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F144" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G144" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H144" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -3664,16 +3673,16 @@
         <v>132</v>
       </c>
       <c r="H147" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K147" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L147" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M147" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -3717,16 +3726,16 @@
         <v>133</v>
       </c>
       <c r="H151" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K151" t="s">
+        <v>371</v>
+      </c>
+      <c r="L151" t="s">
         <v>373</v>
       </c>
-      <c r="L151" t="s">
-        <v>375</v>
-      </c>
       <c r="M151" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -3764,22 +3773,22 @@
         <v>135</v>
       </c>
       <c r="F155" t="s">
+        <v>354</v>
+      </c>
+      <c r="G155" t="s">
+        <v>355</v>
+      </c>
+      <c r="H155" t="s">
         <v>356</v>
       </c>
-      <c r="G155" t="s">
-        <v>357</v>
-      </c>
-      <c r="H155" t="s">
-        <v>358</v>
-      </c>
       <c r="K155" t="s">
+        <v>372</v>
+      </c>
+      <c r="L155" t="s">
+        <v>373</v>
+      </c>
+      <c r="M155" t="s">
         <v>374</v>
-      </c>
-      <c r="L155" t="s">
-        <v>375</v>
-      </c>
-      <c r="M155" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -3792,7 +3801,7 @@
         <v>56</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -3819,7 +3828,7 @@
         <v>224</v>
       </c>
       <c r="H160" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -3879,7 +3888,7 @@
         <v>56</v>
       </c>
       <c r="C167" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G167" s="2"/>
     </row>
@@ -3888,10 +3897,10 @@
         <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H168" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3926,7 @@
         <v>222</v>
       </c>
       <c r="H171" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -3943,7 +3952,7 @@
         <v>241</v>
       </c>
       <c r="H174" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -4140,7 +4149,7 @@
         <v>236</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="s">
         <v>219</v>
@@ -4149,13 +4158,13 @@
         <v>142</v>
       </c>
       <c r="K194" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
@@ -4166,7 +4175,7 @@
         <v>87</v>
       </c>
       <c r="I195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
@@ -4174,7 +4183,7 @@
         <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G196" t="s">
         <v>110</v>
@@ -4183,7 +4192,7 @@
         <v>111</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L196" t="s">
         <v>305</v>
@@ -4200,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="I197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
@@ -4243,7 +4252,7 @@
         <v>143</v>
       </c>
       <c r="H202" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.25">
@@ -4335,11 +4344,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,7 +4400,7 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,7 +4538,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B13" t="str">
@@ -4537,332 +4546,416 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" t="str">
+      <c r="C17" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="C19" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="C20" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="2" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B19" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>297</v>
       </c>
       <c r="B22" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="2" t="str">
+        <v>209</v>
+      </c>
+      <c r="B23" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="2" t="str">
+        <v>209</v>
+      </c>
+      <c r="B24" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="B25" t="str">
-        <f>"99"</f>
-        <v>99</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
+        <v>213</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>313</v>
+      <c r="A26" t="s">
+        <v>209</v>
       </c>
       <c r="B26" t="str">
-        <f>"99"</f>
-        <v>99</v>
+        <f>"77"</f>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="B27" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" t="s">
-        <v>339</v>
+      <c r="C27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" t="str">
+        <v>296</v>
+      </c>
+      <c r="B28" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D28" t="s">
-        <v>341</v>
+      <c r="C28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="B29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C31" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" t="s">
-        <v>354</v>
+      <c r="C31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="B32" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C32" t="s">
-        <v>351</v>
-      </c>
-      <c r="D32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>164</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -4890,28 +4983,28 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
+      <c r="A62" s="4"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
@@ -4987,33 +5080,27 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -5041,7 +5128,6 @@
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -5090,24 +5176,34 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
@@ -5127,9 +5223,6 @@
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
-    </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
@@ -5162,6 +5255,27 @@
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5319,8 +5433,8 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5415,10 +5529,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5471,7 +5585,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -5581,7 +5695,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
         <v>236</v>
@@ -5669,7 +5783,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -5713,7 +5827,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -5735,7 +5849,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -5779,7 +5893,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -5878,7 +5992,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
         <v>146</v>
@@ -5900,7 +6014,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
         <v>233</v>
@@ -6032,7 +6146,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -6043,7 +6157,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -6065,10 +6179,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DA9AB-7CDC-434A-B08B-B9A7CFFC7086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35A8E5-790C-4F86-AF2A-25D70BCF7AE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="464">
   <si>
     <t>setting_name</t>
   </si>
@@ -283,9 +283,6 @@
     <t>TRATAMENT</t>
   </si>
   <si>
-    <t>data('TRATAMENT') =='1'</t>
-  </si>
-  <si>
     <t>TRATQUAL</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
   </si>
   <si>
     <t>Did the child receive any treatments?</t>
-  </si>
-  <si>
-    <t>A criança recebeu algum tratamento?</t>
   </si>
   <si>
     <t>O cartão de vacina foi visto?</t>
@@ -678,30 +672,6 @@
     <t>tratament</t>
   </si>
   <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>Treatment 3</t>
-  </si>
-  <si>
-    <t>Treatment 4</t>
-  </si>
-  <si>
-    <t>Tratamento 1</t>
-  </si>
-  <si>
-    <t>Tratamento 2</t>
-  </si>
-  <si>
-    <t>Tratamento 3</t>
-  </si>
-  <si>
-    <t>Tratamento 4</t>
-  </si>
-  <si>
     <t>TRATQUALOU</t>
   </si>
   <si>
@@ -1026,9 +996,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>selected(data('TRATQUAL'),'77')</t>
-  </si>
-  <si>
     <t>Don't know</t>
   </si>
   <si>
@@ -1356,9 +1323,6 @@
     <t>Abrao</t>
   </si>
   <si>
-    <t>Suzete</t>
-  </si>
-  <si>
     <t>Augosto Da Costa</t>
   </si>
   <si>
@@ -1366,6 +1330,114 @@
   </si>
   <si>
     <t>Fatima</t>
+  </si>
+  <si>
+    <t>TRATAMENT_A</t>
+  </si>
+  <si>
+    <t>A criança recebeu algum tratamento (antes inclusao)?</t>
+  </si>
+  <si>
+    <t>data('TRATAMENT_A') =='1'</t>
+  </si>
+  <si>
+    <t>TRATQUAL_A</t>
+  </si>
+  <si>
+    <t>TRATAMENT_R</t>
+  </si>
+  <si>
+    <t>Did the child get any treatments prescribed?</t>
+  </si>
+  <si>
+    <t>A criança deve receber algum tratamento (receita)?</t>
+  </si>
+  <si>
+    <t>TRATQUAL_R</t>
+  </si>
+  <si>
+    <t>What treatments are prescribed ?</t>
+  </si>
+  <si>
+    <t>Qual tratamento foi receitado?</t>
+  </si>
+  <si>
+    <t>TRATQUALOU_R</t>
+  </si>
+  <si>
+    <t>TRATQUALOU_A</t>
+  </si>
+  <si>
+    <t>selected(data('TRATQUAL_R'),'77')</t>
+  </si>
+  <si>
+    <t>data('TRATAMENT_R') =='1'</t>
+  </si>
+  <si>
+    <t>selected(data('TRATQUAL_A'),'77')</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Amoxicillina</t>
+  </si>
+  <si>
+    <t>Complexo B</t>
+  </si>
+  <si>
+    <t>Salbutamol</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Prometazina</t>
+  </si>
+  <si>
+    <t>Treatment 7</t>
+  </si>
+  <si>
+    <t>Treatment 8</t>
+  </si>
+  <si>
+    <t>Tratamento 8</t>
+  </si>
+  <si>
+    <t>Tratamento 7</t>
+  </si>
+  <si>
+    <t>Treatment 9</t>
+  </si>
+  <si>
+    <t>Tratamento 9</t>
+  </si>
+  <si>
+    <t>Treatment 10</t>
+  </si>
+  <si>
+    <t>Tratamento 10</t>
+  </si>
+  <si>
+    <t>Treatment 11</t>
+  </si>
+  <si>
+    <t>Tratamento 11</t>
+  </si>
+  <si>
+    <t>Treatment 12</t>
+  </si>
+  <si>
+    <t>Tratamento 12</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>removed Suzete (enf=1) on 19-01-2022</t>
+  </si>
+  <si>
+    <t>removed Suzete (ass=11) on 19-01-2022</t>
   </si>
 </sst>
 </file>
@@ -1437,12 +1509,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1469,7 +1553,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1488,6 +1572,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1778,17 +1864,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1808,15 +1894,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1824,26 +1910,26 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1851,10 +1937,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1865,7 +1951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1888,19 +1974,19 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1929,12 +2015,12 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1944,33 +2030,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R212"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="30.7265625" customWidth="1"/>
+    <col min="12" max="12" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1999,61 +2085,61 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -2061,133 +2147,133 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
         <v>157</v>
       </c>
-      <c r="E8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>158</v>
       </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K14" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" t="s">
         <v>423</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K14" t="s">
-        <v>432</v>
-      </c>
-      <c r="L14" t="s">
-        <v>434</v>
-      </c>
       <c r="M14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -2196,36 +2282,36 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>39</v>
       </c>
@@ -2234,44 +2320,44 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L19" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" t="s">
@@ -2281,118 +2367,118 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H23" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L23" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L25" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M25" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I28">
         <v>99999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -2400,16 +2486,16 @@
         <v>46</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>49</v>
       </c>
@@ -2417,71 +2503,71 @@
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H34" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="R34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H38" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -2489,230 +2575,230 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>58</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47">
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53">
         <v>9999999</v>
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H56" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M56" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I59">
         <v>999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>31</v>
       </c>
@@ -2720,129 +2806,129 @@
         <v>48</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K64" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L64" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M64" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="R64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" t="s">
         <v>175</v>
       </c>
-      <c r="H70" t="s">
-        <v>177</v>
-      </c>
       <c r="K70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L70" t="s">
+        <v>274</v>
+      </c>
+      <c r="M70" t="s">
         <v>273</v>
       </c>
-      <c r="L70" t="s">
-        <v>284</v>
-      </c>
-      <c r="M70" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" t="s">
         <v>176</v>
       </c>
-      <c r="H71" t="s">
-        <v>178</v>
-      </c>
       <c r="K71" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" t="s">
+        <v>271</v>
+      </c>
+      <c r="M71" t="s">
         <v>272</v>
       </c>
-      <c r="L71" t="s">
-        <v>281</v>
-      </c>
-      <c r="M71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>49</v>
       </c>
@@ -2850,276 +2936,276 @@
         <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H75" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="R75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K79" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L79" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>58</v>
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H85" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K85" t="s">
+        <v>265</v>
+      </c>
+      <c r="L85" t="s">
         <v>275</v>
       </c>
-      <c r="L85" t="s">
-        <v>285</v>
-      </c>
       <c r="M85" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
         <v>39</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H87" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K87" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L87" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M87" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>39</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="K89" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L89" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M89" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E90" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I92">
         <v>999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>58</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I95">
         <v>999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>58</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>49</v>
       </c>
@@ -3130,22 +3216,22 @@
         <v>52</v>
       </c>
       <c r="G99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K99" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L99" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M99" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>56</v>
       </c>
@@ -3153,7 +3239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>49</v>
       </c>
@@ -3161,30 +3247,30 @@
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" t="s">
+        <v>198</v>
+      </c>
+      <c r="H101" t="s">
         <v>199</v>
       </c>
-      <c r="G101" t="s">
-        <v>200</v>
-      </c>
-      <c r="H101" t="s">
-        <v>201</v>
-      </c>
       <c r="K101" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L101" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M101" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>56</v>
       </c>
@@ -3192,7 +3278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D104" t="s">
         <v>49</v>
       </c>
@@ -3203,32 +3289,32 @@
         <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H104" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="K104" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L104" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M104" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>56</v>
       </c>
@@ -3236,31 +3322,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G108" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H108" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D111" t="s">
         <v>45</v>
       </c>
@@ -3268,31 +3354,31 @@
         <v>74</v>
       </c>
       <c r="G111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H111" t="s">
         <v>62</v>
       </c>
       <c r="K111" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L111" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M111" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>39</v>
       </c>
@@ -3300,32 +3386,32 @@
         <v>63</v>
       </c>
       <c r="G112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H112" t="s">
         <v>64</v>
       </c>
       <c r="K112" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M112" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>49</v>
       </c>
@@ -3336,21 +3422,21 @@
         <v>65</v>
       </c>
       <c r="G115" t="s">
+        <v>117</v>
+      </c>
+      <c r="H115" t="s">
         <v>118</v>
       </c>
-      <c r="H115" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>31</v>
       </c>
@@ -3358,176 +3444,176 @@
         <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H117" t="s">
         <v>68</v>
       </c>
       <c r="K117" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L117" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M117" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D121" t="s">
         <v>49</v>
       </c>
       <c r="E121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F121" t="s">
         <v>69</v>
       </c>
       <c r="G121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>49</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F122" t="s">
         <v>71</v>
       </c>
       <c r="G122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D123" t="s">
         <v>49</v>
       </c>
       <c r="E123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F123" t="s">
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D126" t="s">
         <v>49</v>
       </c>
       <c r="E126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F126" t="s">
         <v>75</v>
       </c>
       <c r="G126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D127" t="s">
         <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F127" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H127" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D128" t="s">
         <v>49</v>
       </c>
       <c r="E128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F128" t="s">
         <v>77</v>
       </c>
       <c r="G128" t="s">
+        <v>126</v>
+      </c>
+      <c r="H128" t="s">
         <v>127</v>
       </c>
-      <c r="H128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D131" t="s">
         <v>49</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131" t="s">
         <v>78</v>
       </c>
       <c r="G131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H131" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D132" t="s">
         <v>45</v>
       </c>
@@ -3535,804 +3621,888 @@
         <v>80</v>
       </c>
       <c r="G132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H132" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="134" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
+    <row r="135" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D135" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="G135" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F135" t="s">
-        <v>81</v>
-      </c>
-      <c r="G135" t="s">
-        <v>136</v>
-      </c>
-      <c r="H135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="H135" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C136" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>146</v>
-      </c>
-      <c r="E137" t="s">
-        <v>209</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="C136" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D137" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D139" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D144" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H144" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D146" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D148" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>349</v>
+      </c>
+      <c r="F153" t="s">
+        <v>378</v>
+      </c>
+      <c r="G153" t="s">
+        <v>381</v>
+      </c>
+      <c r="H153" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>49</v>
+      </c>
+      <c r="E156" t="s">
+        <v>53</v>
+      </c>
+      <c r="F156" t="s">
         <v>83</v>
       </c>
-      <c r="G137" t="s">
-        <v>390</v>
-      </c>
-      <c r="H137" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>45</v>
-      </c>
-      <c r="F139" t="s">
-        <v>218</v>
-      </c>
-      <c r="G139" t="s">
-        <v>231</v>
-      </c>
-      <c r="H139" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>360</v>
-      </c>
-      <c r="F144" t="s">
-        <v>389</v>
-      </c>
-      <c r="G144" t="s">
-        <v>392</v>
-      </c>
-      <c r="H144" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>49</v>
-      </c>
-      <c r="E147" t="s">
-        <v>53</v>
-      </c>
-      <c r="F147" t="s">
-        <v>84</v>
-      </c>
-      <c r="G147" t="s">
-        <v>132</v>
-      </c>
-      <c r="H147" t="s">
-        <v>409</v>
-      </c>
-      <c r="K147" t="s">
-        <v>370</v>
-      </c>
-      <c r="L147" t="s">
-        <v>373</v>
-      </c>
-      <c r="M147" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>45</v>
-      </c>
-      <c r="F149" t="s">
-        <v>85</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="G156" t="s">
         <v>131</v>
       </c>
-      <c r="H149" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>49</v>
-      </c>
-      <c r="E151" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" t="s">
-        <v>97</v>
-      </c>
-      <c r="G151" t="s">
-        <v>133</v>
-      </c>
-      <c r="H151" t="s">
-        <v>410</v>
-      </c>
-      <c r="K151" t="s">
-        <v>371</v>
-      </c>
-      <c r="L151" t="s">
-        <v>373</v>
-      </c>
-      <c r="M151" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>45</v>
-      </c>
-      <c r="F153" t="s">
-        <v>145</v>
-      </c>
-      <c r="G153" t="s">
-        <v>131</v>
-      </c>
-      <c r="H153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>49</v>
-      </c>
-      <c r="E155" t="s">
-        <v>135</v>
-      </c>
-      <c r="F155" t="s">
-        <v>354</v>
-      </c>
-      <c r="G155" t="s">
-        <v>355</v>
-      </c>
-      <c r="H155" t="s">
-        <v>356</v>
-      </c>
-      <c r="K155" t="s">
-        <v>372</v>
-      </c>
-      <c r="L155" t="s">
-        <v>373</v>
-      </c>
-      <c r="M155" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>398</v>
+      </c>
+      <c r="K156" t="s">
+        <v>359</v>
+      </c>
+      <c r="L156" t="s">
+        <v>362</v>
+      </c>
+      <c r="M156" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>56</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
-        <v>106</v>
-      </c>
-      <c r="F159" t="s">
-        <v>220</v>
-      </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" t="s">
+        <v>84</v>
+      </c>
+      <c r="G158" t="s">
+        <v>130</v>
+      </c>
+      <c r="H158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D160" t="s">
-        <v>33</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>224</v>
+        <v>49</v>
+      </c>
+      <c r="E160" t="s">
+        <v>53</v>
+      </c>
+      <c r="F160" t="s">
+        <v>96</v>
+      </c>
+      <c r="G160" t="s">
+        <v>132</v>
       </c>
       <c r="H160" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K160" t="s">
+        <v>360</v>
+      </c>
+      <c r="L160" t="s">
+        <v>362</v>
+      </c>
+      <c r="M160" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>56</v>
       </c>
       <c r="C161" t="s">
-        <v>91</v>
-      </c>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D162" t="s">
-        <v>33</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>294</v>
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
+        <v>143</v>
+      </c>
+      <c r="G162" t="s">
+        <v>130</v>
       </c>
       <c r="H162" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>58</v>
       </c>
-      <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>49</v>
+      </c>
+      <c r="E164" t="s">
+        <v>134</v>
+      </c>
+      <c r="F164" t="s">
+        <v>343</v>
+      </c>
+      <c r="G164" t="s">
+        <v>344</v>
+      </c>
+      <c r="H164" t="s">
+        <v>345</v>
+      </c>
+      <c r="K164" t="s">
+        <v>361</v>
+      </c>
+      <c r="L164" t="s">
+        <v>362</v>
+      </c>
+      <c r="M164" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
         <v>56</v>
       </c>
-      <c r="C164" t="s">
-        <v>98</v>
-      </c>
-      <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
+      <c r="C166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>105</v>
+      </c>
+      <c r="F168" t="s">
+        <v>210</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
         <v>33</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H165" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>58</v>
-      </c>
-      <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>56</v>
-      </c>
-      <c r="C167" t="s">
-        <v>358</v>
-      </c>
-      <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
-        <v>33</v>
-      </c>
-      <c r="G168" t="s">
-        <v>359</v>
-      </c>
-      <c r="H168" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>58</v>
-      </c>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H169" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>56</v>
       </c>
       <c r="C170" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D171" t="s">
         <v>33</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="H171" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>58</v>
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>56</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D174" t="s">
         <v>33</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H174" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>58</v>
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>56</v>
       </c>
       <c r="C176" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D177" t="s">
         <v>33</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>226</v>
+      <c r="G177" t="s">
+        <v>348</v>
       </c>
       <c r="H177" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>58</v>
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>56</v>
       </c>
       <c r="C179" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D180" t="s">
         <v>33</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" t="s">
+        <v>213</v>
+      </c>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H183" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>58</v>
+      </c>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" t="s">
+        <v>215</v>
+      </c>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D186" t="s">
+        <v>33</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>58</v>
+      </c>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" t="s">
+        <v>217</v>
+      </c>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D185" t="s">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D194" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="F194" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H194" t="s">
+        <v>193</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L194" t="s">
+        <v>293</v>
+      </c>
+      <c r="M194" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>39</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G185" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H185" t="s">
-        <v>195</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="G195" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H195" t="s">
+        <v>194</v>
+      </c>
+      <c r="K195" t="s">
+        <v>219</v>
+      </c>
+      <c r="L195" t="s">
+        <v>294</v>
+      </c>
+      <c r="M195" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>105</v>
+      </c>
+      <c r="F196" t="s">
+        <v>299</v>
+      </c>
+      <c r="I196" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>301</v>
+      </c>
+      <c r="H197" t="s">
         <v>302</v>
       </c>
-      <c r="L185" t="s">
-        <v>303</v>
-      </c>
-      <c r="M185" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D186" t="s">
-        <v>39</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H186" t="s">
-        <v>196</v>
-      </c>
-      <c r="K186" t="s">
-        <v>229</v>
-      </c>
-      <c r="L186" t="s">
-        <v>304</v>
-      </c>
-      <c r="M186" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D187" t="s">
-        <v>106</v>
-      </c>
-      <c r="F187" t="s">
-        <v>309</v>
-      </c>
-      <c r="I187" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D188" t="s">
-        <v>33</v>
-      </c>
-      <c r="G188" t="s">
-        <v>311</v>
-      </c>
-      <c r="H188" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D189" t="s">
-        <v>106</v>
-      </c>
-      <c r="F189" t="s">
-        <v>220</v>
-      </c>
-      <c r="I189">
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D198" t="s">
+        <v>105</v>
+      </c>
+      <c r="F198" t="s">
+        <v>210</v>
+      </c>
+      <c r="I198">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D192" t="s">
-        <v>106</v>
-      </c>
-      <c r="F192" t="s">
-        <v>86</v>
-      </c>
-      <c r="I192" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D193" t="s">
-        <v>31</v>
-      </c>
-      <c r="F193" t="s">
-        <v>86</v>
-      </c>
-      <c r="G193" t="s">
-        <v>141</v>
-      </c>
-      <c r="H193" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D194" t="s">
-        <v>236</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
-      </c>
-      <c r="G194" t="s">
-        <v>219</v>
-      </c>
-      <c r="H194" t="s">
-        <v>142</v>
-      </c>
-      <c r="K194" t="s">
-        <v>388</v>
-      </c>
-      <c r="L194" t="s">
-        <v>373</v>
-      </c>
-      <c r="M194" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D195" t="s">
-        <v>106</v>
-      </c>
-      <c r="F195" t="s">
-        <v>87</v>
-      </c>
-      <c r="I195" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
-        <v>39</v>
-      </c>
-      <c r="F196" t="s">
-        <v>383</v>
-      </c>
-      <c r="G196" t="s">
-        <v>110</v>
-      </c>
-      <c r="H196" t="s">
-        <v>111</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L196" t="s">
-        <v>305</v>
-      </c>
-      <c r="M196" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D197" t="s">
-        <v>106</v>
-      </c>
-      <c r="F197" t="s">
-        <v>40</v>
-      </c>
-      <c r="I197" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D198" t="s">
-        <v>33</v>
-      </c>
-      <c r="G198" t="s">
-        <v>321</v>
-      </c>
-      <c r="H198" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>105</v>
+      </c>
+      <c r="F201" t="s">
+        <v>85</v>
+      </c>
+      <c r="I201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>31</v>
+      </c>
+      <c r="F202" t="s">
+        <v>85</v>
+      </c>
+      <c r="G202" t="s">
+        <v>139</v>
+      </c>
+      <c r="H202" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>226</v>
+      </c>
+      <c r="F203" t="s">
+        <v>373</v>
+      </c>
+      <c r="G203" t="s">
+        <v>209</v>
+      </c>
+      <c r="H203" t="s">
+        <v>140</v>
+      </c>
+      <c r="K203" t="s">
+        <v>377</v>
+      </c>
+      <c r="L203" t="s">
+        <v>362</v>
+      </c>
+      <c r="M203" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>105</v>
+      </c>
+      <c r="F204" t="s">
+        <v>86</v>
+      </c>
+      <c r="I204" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="s">
+        <v>372</v>
+      </c>
+      <c r="G205" t="s">
+        <v>109</v>
+      </c>
+      <c r="H205" t="s">
+        <v>110</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L205" t="s">
+        <v>295</v>
+      </c>
+      <c r="M205" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>105</v>
+      </c>
+      <c r="F206" t="s">
+        <v>40</v>
+      </c>
+      <c r="I206" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>311</v>
+      </c>
+      <c r="H207" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D202" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E202" t="s">
-        <v>197</v>
-      </c>
-      <c r="F202" s="2" t="s">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D211" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E211" t="s">
+        <v>195</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G211" t="s">
+        <v>141</v>
+      </c>
+      <c r="H211" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" t="s">
+        <v>220</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D213" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E213" t="s">
+        <v>196</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G202" t="s">
-        <v>143</v>
-      </c>
-      <c r="H202" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>56</v>
-      </c>
-      <c r="C203" t="s">
-        <v>230</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D204" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E204" t="s">
-        <v>198</v>
-      </c>
-      <c r="F204" s="2" t="s">
+      <c r="G213" t="s">
+        <v>142</v>
+      </c>
+      <c r="H213" t="s">
         <v>89</v>
       </c>
-      <c r="G204" t="s">
-        <v>144</v>
-      </c>
-      <c r="H204" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
         <v>58</v>
       </c>
-      <c r="D205" s="2"/>
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+      <c r="D214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D218" t="s">
         <v>33</v>
       </c>
-      <c r="G209" t="s">
-        <v>207</v>
-      </c>
-      <c r="H209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D210" t="s">
-        <v>106</v>
-      </c>
-      <c r="F210" t="s">
-        <v>220</v>
-      </c>
-      <c r="I210">
+      <c r="G218" t="s">
+        <v>205</v>
+      </c>
+      <c r="H218" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D219" t="s">
+        <v>105</v>
+      </c>
+      <c r="F219" t="s">
+        <v>210</v>
+      </c>
+      <c r="I219">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4344,22 +4514,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -4372,8 +4542,11 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4382,13 +4555,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -4397,13 +4570,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4412,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4427,13 +4600,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4442,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -4457,825 +4630,921 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" t="str">
+        <v>195</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="2" t="str">
+      <c r="C16" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="2" t="str">
+      <c r="C17" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="2" t="str">
+      <c r="C18" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="C19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="C20" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="2" t="str">
+      <c r="C30" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2" t="str">
+      <c r="C34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="B38" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="C38" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>336</v>
-      </c>
-      <c r="D34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>335</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>348</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>348</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="B40" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>327</v>
+      </c>
+      <c r="D41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" s="9"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" s="9"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5293,13 +5562,13 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -5322,54 +5591,54 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5386,15 +5655,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
@@ -5408,7 +5677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5430,21 +5699,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5455,35 +5724,35 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -5494,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5505,20 +5774,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -5527,18 +5796,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -5549,9 +5818,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>45</v>
@@ -5560,20 +5829,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -5583,9 +5852,9 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -5594,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -5605,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5616,9 +5885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -5627,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5638,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5649,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -5660,29 +5929,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -5693,31 +5962,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -5726,9 +5995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -5737,9 +6006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -5748,29 +6017,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5781,9 +6050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -5792,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -5803,9 +6072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
@@ -5814,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5825,9 +6094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -5836,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5847,9 +6116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -5858,20 +6127,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -5880,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5891,9 +6160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -5902,9 +6171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -5913,9 +6182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -5924,9 +6193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>45</v>
@@ -5935,9 +6204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -5946,9 +6215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -5957,9 +6226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>39</v>
@@ -5968,20 +6237,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -5990,18 +6259,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -6012,20 +6281,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -6034,9 +6303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -6045,64 +6314,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -6111,9 +6380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -6122,9 +6391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6133,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -6144,9 +6413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -6155,9 +6424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -6166,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6177,223 +6446,289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>360</v>
+        <v>428</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
         <v>45</v>
       </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>439</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B76" t="s">
         <v>49</v>
       </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>314</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C73" t="b">
+      <c r="C79" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="D79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C74" t="b">
+      <c r="C80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="8"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="8"/>
     </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35A8E5-790C-4F86-AF2A-25D70BCF7AE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F6271-5A4F-4747-99AC-39743E9A3ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="484">
   <si>
     <t>setting_name</t>
   </si>
@@ -1305,139 +1305,199 @@
     <t>data('BAIRRO') != 77</t>
   </si>
   <si>
+    <t>data('CAMOONDE') != null || data('TABZ') == 7777 || data('CAMO') != 9999</t>
+  </si>
+  <si>
+    <t>data('CAMO') != null || data('CAMOONDE') != null</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>Abrao</t>
+  </si>
+  <si>
+    <t>Augosto Da Costa</t>
+  </si>
+  <si>
+    <t>Abdel</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>TRATAMENT_A</t>
+  </si>
+  <si>
+    <t>A criança recebeu algum tratamento (antes inclusao)?</t>
+  </si>
+  <si>
+    <t>data('TRATAMENT_A') =='1'</t>
+  </si>
+  <si>
+    <t>TRATQUAL_A</t>
+  </si>
+  <si>
+    <t>TRATAMENT_R</t>
+  </si>
+  <si>
+    <t>Did the child get any treatments prescribed?</t>
+  </si>
+  <si>
+    <t>A criança deve receber algum tratamento (receita)?</t>
+  </si>
+  <si>
+    <t>TRATQUAL_R</t>
+  </si>
+  <si>
+    <t>What treatments are prescribed ?</t>
+  </si>
+  <si>
+    <t>Qual tratamento foi receitado?</t>
+  </si>
+  <si>
+    <t>TRATQUALOU_R</t>
+  </si>
+  <si>
+    <t>TRATQUALOU_A</t>
+  </si>
+  <si>
+    <t>selected(data('TRATQUAL_R'),'77')</t>
+  </si>
+  <si>
+    <t>data('TRATAMENT_R') =='1'</t>
+  </si>
+  <si>
+    <t>selected(data('TRATQUAL_A'),'77')</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Amoxicillina</t>
+  </si>
+  <si>
+    <t>Complexo B</t>
+  </si>
+  <si>
+    <t>Salbutamol</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Prometazina</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>removed Suzete (enf=1) on 19-01-2022</t>
+  </si>
+  <si>
+    <t>removed Suzete (ass=11) on 19-01-2022</t>
+  </si>
+  <si>
+    <t>Soro fisiologico</t>
+  </si>
+  <si>
+    <t>Vitamina C</t>
+  </si>
+  <si>
+    <t>SRO</t>
+  </si>
+  <si>
+    <t>Sulfate de Zinco</t>
+  </si>
+  <si>
+    <t>Azitomicina</t>
+  </si>
+  <si>
+    <t>Brufen</t>
+  </si>
+  <si>
+    <t>Albendazol</t>
+  </si>
+  <si>
+    <t>Mebendazol</t>
+  </si>
+  <si>
+    <t>Metroniazol</t>
+  </si>
+  <si>
+    <t>Nistatina</t>
+  </si>
+  <si>
+    <t>Augmentin</t>
+  </si>
+  <si>
+    <t>Erytromecina</t>
+  </si>
+  <si>
+    <t>added 16-02-2022</t>
+  </si>
+  <si>
+    <t>added 16-02-2023</t>
+  </si>
+  <si>
+    <t>added 16-02-2024</t>
+  </si>
+  <si>
+    <t>added 16-02-2025</t>
+  </si>
+  <si>
+    <t>added 16-02-2026</t>
+  </si>
+  <si>
+    <t>added 16-02-2027</t>
+  </si>
+  <si>
+    <t>added 16-02-2028</t>
+  </si>
+  <si>
+    <t>added 16-02-2029</t>
+  </si>
+  <si>
+    <t>added 16-02-2030</t>
+  </si>
+  <si>
+    <t>added 16-02-2031</t>
+  </si>
+  <si>
+    <t>added 16-02-2032</t>
+  </si>
+  <si>
+    <t>added 16-02-2033</t>
+  </si>
+  <si>
+    <t>changeregno</t>
+  </si>
+  <si>
+    <t>changeregdate</t>
+  </si>
+  <si>
+    <t>REGDATE</t>
+  </si>
+  <si>
+    <t>data('MOTCONT')=='1'</t>
+  </si>
+  <si>
+    <t>data("DATINC")</t>
+  </si>
+  <si>
+    <t>data("INTINICI")</t>
+  </si>
+  <si>
     <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('BAIRRO') == 77</t>
   </si>
   <si>
-    <t>data('REGIDC') &gt; 99999999 &amp;&amp; data('REGIDC') &lt; 1000000000 || data('BAIRRO') != 77</t>
-  </si>
-  <si>
-    <t>data('CAMOONDE') != null || data('TABZ') == 7777 || data('CAMO') != 9999</t>
-  </si>
-  <si>
-    <t>data('CAMO') != null || data('CAMOONDE') != null</t>
-  </si>
-  <si>
-    <t>OBS</t>
-  </si>
-  <si>
-    <t>Abrao</t>
-  </si>
-  <si>
-    <t>Augosto Da Costa</t>
-  </si>
-  <si>
-    <t>Abdel</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>TRATAMENT_A</t>
-  </si>
-  <si>
-    <t>A criança recebeu algum tratamento (antes inclusao)?</t>
-  </si>
-  <si>
-    <t>data('TRATAMENT_A') =='1'</t>
-  </si>
-  <si>
-    <t>TRATQUAL_A</t>
-  </si>
-  <si>
-    <t>TRATAMENT_R</t>
-  </si>
-  <si>
-    <t>Did the child get any treatments prescribed?</t>
-  </si>
-  <si>
-    <t>A criança deve receber algum tratamento (receita)?</t>
-  </si>
-  <si>
-    <t>TRATQUAL_R</t>
-  </si>
-  <si>
-    <t>What treatments are prescribed ?</t>
-  </si>
-  <si>
-    <t>Qual tratamento foi receitado?</t>
-  </si>
-  <si>
-    <t>TRATQUALOU_R</t>
-  </si>
-  <si>
-    <t>TRATQUALOU_A</t>
-  </si>
-  <si>
-    <t>selected(data('TRATQUAL_R'),'77')</t>
-  </si>
-  <si>
-    <t>data('TRATAMENT_R') =='1'</t>
-  </si>
-  <si>
-    <t>selected(data('TRATQUAL_A'),'77')</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>Amoxicillina</t>
-  </si>
-  <si>
-    <t>Complexo B</t>
-  </si>
-  <si>
-    <t>Salbutamol</t>
-  </si>
-  <si>
-    <t>Diazepam</t>
-  </si>
-  <si>
-    <t>Prometazina</t>
-  </si>
-  <si>
-    <t>Treatment 7</t>
-  </si>
-  <si>
-    <t>Treatment 8</t>
-  </si>
-  <si>
-    <t>Tratamento 8</t>
-  </si>
-  <si>
-    <t>Tratamento 7</t>
-  </si>
-  <si>
-    <t>Treatment 9</t>
-  </si>
-  <si>
-    <t>Tratamento 9</t>
-  </si>
-  <si>
-    <t>Treatment 10</t>
-  </si>
-  <si>
-    <t>Tratamento 10</t>
-  </si>
-  <si>
-    <t>Treatment 11</t>
-  </si>
-  <si>
-    <t>Tratamento 11</t>
-  </si>
-  <si>
-    <t>Treatment 12</t>
-  </si>
-  <si>
-    <t>Tratamento 12</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>removed Suzete (enf=1) on 19-01-2022</t>
-  </si>
-  <si>
-    <t>removed Suzete (ass=11) on 19-01-2022</t>
+    <t>data('REGIDC') &gt; 10000000 &amp;&amp; data('REGIDC') &lt; 170000000 || data('BAIRRO') != 77</t>
+  </si>
+  <si>
+    <t>Deve ter 8 dígitos:</t>
+  </si>
+  <si>
+    <t>Must be 8 digits long:</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,6 +1585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,7 +1619,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1574,6 +1640,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1971,7 +2038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,11 +2097,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,13 +2324,13 @@
         <v>413</v>
       </c>
       <c r="K14" t="s">
+        <v>419</v>
+      </c>
+      <c r="L14" t="s">
         <v>421</v>
       </c>
-      <c r="L14" t="s">
-        <v>423</v>
-      </c>
       <c r="M14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -2326,13 +2393,13 @@
         <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -2382,13 +2449,13 @@
         <v>260</v>
       </c>
       <c r="K23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" t="s">
         <v>421</v>
       </c>
-      <c r="L23" t="s">
-        <v>423</v>
-      </c>
       <c r="M23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -2668,8 +2735,8 @@
       <c r="H50" t="s">
         <v>190</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>419</v>
+      <c r="K50" s="16" t="s">
+        <v>480</v>
       </c>
       <c r="L50" t="s">
         <v>270</v>
@@ -2737,13 +2804,13 @@
         <v>388</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s">
-        <v>387</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.35">
@@ -3437,18 +3504,20 @@
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I117" s="2"/>
       <c r="K117" t="s">
         <v>230</v>
       </c>
@@ -3526,65 +3595,74 @@
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
+      <c r="B124" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B125" t="s">
-        <v>12</v>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D126" t="s">
-        <v>49</v>
-      </c>
-      <c r="E126" t="s">
-        <v>134</v>
-      </c>
-      <c r="F126" t="s">
-        <v>75</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
-      <c r="H126" t="s">
-        <v>123</v>
-      </c>
+      <c r="B126" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D127" t="s">
-        <v>49</v>
-      </c>
-      <c r="E127" t="s">
-        <v>134</v>
-      </c>
-      <c r="F127" t="s">
-        <v>382</v>
-      </c>
-      <c r="G127" t="s">
-        <v>124</v>
-      </c>
-      <c r="H127" t="s">
-        <v>76</v>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D128" t="s">
-        <v>49</v>
-      </c>
-      <c r="E128" t="s">
-        <v>134</v>
-      </c>
-      <c r="F128" t="s">
-        <v>77</v>
-      </c>
-      <c r="G128" t="s">
-        <v>126</v>
-      </c>
-      <c r="H128" t="s">
-        <v>127</v>
-      </c>
+      <c r="B128" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
@@ -3604,366 +3682,369 @@
         <v>134</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H131" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D132" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" t="s">
+        <v>382</v>
+      </c>
+      <c r="G132" t="s">
+        <v>124</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F133" t="s">
+        <v>77</v>
+      </c>
+      <c r="G133" t="s">
+        <v>126</v>
+      </c>
+      <c r="H133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" t="s">
+        <v>134</v>
+      </c>
+      <c r="F136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G136" t="s">
+        <v>128</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
         <v>45</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F137" t="s">
         <v>80</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G137" t="s">
         <v>129</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H137" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B133" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="17" t="s">
+    <row r="139" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D135" s="17" t="s">
+    <row r="140" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D140" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E140" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F135" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="G135" s="17" t="s">
+      <c r="F140" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G140" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H135" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D137" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="H137" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D139" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H139" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="17" t="s">
-        <v>58</v>
+      <c r="H140" s="17" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="17" t="s">
-        <v>13</v>
+      <c r="D142" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B143" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D144" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D144" s="16" t="s">
+    <row r="149" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D149" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E149" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F144" s="16" t="s">
+      <c r="F149" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H149" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="G144" s="16" t="s">
+    </row>
+    <row r="150" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D151" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F151" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="G151" s="16" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="145" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="16" t="s">
+      <c r="H151" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C145" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D146" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="G146" s="16" t="s">
+      <c r="C152" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D153" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F153" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="H146" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="16" t="s">
+      <c r="G153" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H153" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>349</v>
+      </c>
+      <c r="F158" t="s">
+        <v>378</v>
+      </c>
+      <c r="G158" t="s">
+        <v>381</v>
+      </c>
+      <c r="H158" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>49</v>
+      </c>
+      <c r="E161" t="s">
+        <v>53</v>
+      </c>
+      <c r="F161" t="s">
+        <v>83</v>
+      </c>
+      <c r="G161" t="s">
+        <v>131</v>
+      </c>
+      <c r="H161" t="s">
+        <v>398</v>
+      </c>
+      <c r="K161" t="s">
+        <v>359</v>
+      </c>
+      <c r="L161" t="s">
+        <v>362</v>
+      </c>
+      <c r="M161" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
         <v>56</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D148" s="16" t="s">
+      <c r="C162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="G148" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H148" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="16" t="s">
+      <c r="F163" t="s">
+        <v>84</v>
+      </c>
+      <c r="G163" t="s">
+        <v>130</v>
+      </c>
+      <c r="H163" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D153" t="s">
-        <v>349</v>
-      </c>
-      <c r="F153" t="s">
-        <v>378</v>
-      </c>
-      <c r="G153" t="s">
-        <v>381</v>
-      </c>
-      <c r="H153" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D156" t="s">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
         <v>49</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E165" t="s">
         <v>53</v>
       </c>
-      <c r="F156" t="s">
-        <v>83</v>
-      </c>
-      <c r="G156" t="s">
-        <v>131</v>
-      </c>
-      <c r="H156" t="s">
-        <v>398</v>
-      </c>
-      <c r="K156" t="s">
-        <v>359</v>
-      </c>
-      <c r="L156" t="s">
+      <c r="F165" t="s">
+        <v>96</v>
+      </c>
+      <c r="G165" t="s">
+        <v>132</v>
+      </c>
+      <c r="H165" t="s">
+        <v>399</v>
+      </c>
+      <c r="K165" t="s">
+        <v>360</v>
+      </c>
+      <c r="L165" t="s">
         <v>362</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M165" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B157" t="s">
-        <v>56</v>
-      </c>
-      <c r="C157" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D158" t="s">
-        <v>45</v>
-      </c>
-      <c r="F158" t="s">
-        <v>84</v>
-      </c>
-      <c r="G158" t="s">
-        <v>130</v>
-      </c>
-      <c r="H158" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D160" t="s">
-        <v>49</v>
-      </c>
-      <c r="E160" t="s">
-        <v>53</v>
-      </c>
-      <c r="F160" t="s">
-        <v>96</v>
-      </c>
-      <c r="G160" t="s">
-        <v>132</v>
-      </c>
-      <c r="H160" t="s">
-        <v>399</v>
-      </c>
-      <c r="K160" t="s">
-        <v>360</v>
-      </c>
-      <c r="L160" t="s">
-        <v>362</v>
-      </c>
-      <c r="M160" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B161" t="s">
-        <v>56</v>
-      </c>
-      <c r="C161" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D162" t="s">
-        <v>45</v>
-      </c>
-      <c r="F162" t="s">
-        <v>143</v>
-      </c>
-      <c r="G162" t="s">
-        <v>130</v>
-      </c>
-      <c r="H162" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D164" t="s">
-        <v>49</v>
-      </c>
-      <c r="E164" t="s">
-        <v>134</v>
-      </c>
-      <c r="F164" t="s">
-        <v>343</v>
-      </c>
-      <c r="G164" t="s">
-        <v>344</v>
-      </c>
-      <c r="H164" t="s">
-        <v>345</v>
-      </c>
-      <c r="K164" t="s">
-        <v>361</v>
-      </c>
-      <c r="L164" t="s">
-        <v>362</v>
-      </c>
-      <c r="M164" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B165" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.35">
@@ -3971,319 +4052,334 @@
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B167" t="s">
-        <v>12</v>
+      <c r="D167" t="s">
+        <v>45</v>
+      </c>
+      <c r="F167" t="s">
+        <v>143</v>
+      </c>
+      <c r="G167" t="s">
+        <v>130</v>
+      </c>
+      <c r="H167" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D168" t="s">
-        <v>105</v>
-      </c>
-      <c r="F168" t="s">
-        <v>210</v>
-      </c>
-      <c r="I168">
-        <v>2</v>
+      <c r="B168" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D169" t="s">
-        <v>33</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>214</v>
+        <v>49</v>
+      </c>
+      <c r="E169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F169" t="s">
+        <v>343</v>
+      </c>
+      <c r="G169" t="s">
+        <v>344</v>
       </c>
       <c r="H169" t="s">
-        <v>400</v>
+        <v>345</v>
+      </c>
+      <c r="K169" t="s">
+        <v>361</v>
+      </c>
+      <c r="L169" t="s">
+        <v>362</v>
+      </c>
+      <c r="M169" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
         <v>56</v>
       </c>
-      <c r="C170" t="s">
-        <v>90</v>
-      </c>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D171" t="s">
-        <v>33</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H171" t="s">
-        <v>285</v>
+      <c r="C171" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
-        <v>58</v>
-      </c>
-      <c r="G172" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B173" t="s">
-        <v>56</v>
-      </c>
-      <c r="C173" t="s">
-        <v>97</v>
-      </c>
-      <c r="G173" s="2"/>
+      <c r="D173" t="s">
+        <v>105</v>
+      </c>
+      <c r="F173" t="s">
+        <v>210</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D174" t="s">
         <v>33</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="H174" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>90</v>
+      </c>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H176" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
         <v>58</v>
       </c>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B176" t="s">
-        <v>56</v>
-      </c>
-      <c r="C176" t="s">
-        <v>347</v>
-      </c>
-      <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D177" t="s">
-        <v>33</v>
-      </c>
-      <c r="G177" t="s">
-        <v>348</v>
-      </c>
-      <c r="H177" t="s">
-        <v>401</v>
-      </c>
+      <c r="G177" s="2"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" t="s">
+        <v>97</v>
+      </c>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
         <v>58</v>
       </c>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B179" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" t="s">
-        <v>211</v>
-      </c>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D180" t="s">
-        <v>33</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H180" t="s">
-        <v>402</v>
-      </c>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" t="s">
+        <v>347</v>
+      </c>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" t="s">
+        <v>348</v>
+      </c>
+      <c r="H182" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
         <v>58</v>
       </c>
-      <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B182" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D183" t="s">
-        <v>33</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H183" t="s">
-        <v>403</v>
-      </c>
+      <c r="G183" s="2"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" t="s">
+        <v>211</v>
+      </c>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H185" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
         <v>58</v>
       </c>
-      <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B185" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" t="s">
-        <v>215</v>
-      </c>
-      <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D186" t="s">
-        <v>33</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H186" t="s">
-        <v>234</v>
-      </c>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" t="s">
+        <v>213</v>
+      </c>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D188" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H188" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
         <v>58</v>
       </c>
-      <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B188" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" t="s">
-        <v>217</v>
-      </c>
-      <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D189" t="s">
-        <v>33</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H189" t="s">
-        <v>199</v>
-      </c>
+      <c r="G189" s="2"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C190" t="s">
+        <v>215</v>
+      </c>
+      <c r="G190" s="2"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B191" t="s">
-        <v>13</v>
+      <c r="D191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H191" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
-        <v>169</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
-        <v>12</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C193" t="s">
+        <v>217</v>
+      </c>
+      <c r="G193" s="2"/>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D199" t="s">
         <v>39</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="F199" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="G199" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H199" t="s">
         <v>193</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K199" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L199" t="s">
         <v>293</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M199" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D195" t="s">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D200" t="s">
         <v>39</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G200" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H200" t="s">
         <v>194</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K200" t="s">
         <v>219</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L200" t="s">
         <v>294</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M200" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D196" t="s">
-        <v>105</v>
-      </c>
-      <c r="F196" t="s">
-        <v>299</v>
-      </c>
-      <c r="I196" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D197" t="s">
-        <v>33</v>
-      </c>
-      <c r="G197" t="s">
-        <v>301</v>
-      </c>
-      <c r="H197" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D198" t="s">
-        <v>105</v>
-      </c>
-      <c r="F198" t="s">
-        <v>210</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B200" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.35">
@@ -4291,84 +4387,42 @@
         <v>105</v>
       </c>
       <c r="F201" t="s">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="I201" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D202" t="s">
-        <v>31</v>
-      </c>
-      <c r="F202" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="H202" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q202" t="b">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D203" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="F203" t="s">
-        <v>373</v>
-      </c>
-      <c r="G203" t="s">
-        <v>209</v>
-      </c>
-      <c r="H203" t="s">
-        <v>140</v>
-      </c>
-      <c r="K203" t="s">
-        <v>377</v>
-      </c>
-      <c r="L203" t="s">
-        <v>362</v>
-      </c>
-      <c r="M203" t="s">
-        <v>363</v>
+        <v>210</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D204" t="s">
-        <v>105</v>
-      </c>
-      <c r="F204" t="s">
-        <v>86</v>
-      </c>
-      <c r="I204" t="s">
-        <v>376</v>
+      <c r="B204" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D205" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" t="s">
-        <v>372</v>
-      </c>
-      <c r="G205" t="s">
-        <v>109</v>
-      </c>
-      <c r="H205" t="s">
-        <v>110</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L205" t="s">
-        <v>295</v>
-      </c>
-      <c r="M205" t="s">
-        <v>298</v>
+      <c r="B205" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.35">
@@ -4376,133 +4430,218 @@
         <v>105</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I206" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" t="s">
+        <v>85</v>
+      </c>
+      <c r="G207" t="s">
+        <v>139</v>
+      </c>
+      <c r="H207" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>226</v>
+      </c>
+      <c r="F208" t="s">
+        <v>373</v>
+      </c>
+      <c r="G208" t="s">
+        <v>209</v>
+      </c>
+      <c r="H208" t="s">
+        <v>140</v>
+      </c>
+      <c r="K208" t="s">
+        <v>377</v>
+      </c>
+      <c r="L208" t="s">
+        <v>362</v>
+      </c>
+      <c r="M208" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>105</v>
+      </c>
+      <c r="F209" t="s">
+        <v>86</v>
+      </c>
+      <c r="I209" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>372</v>
+      </c>
+      <c r="G210" t="s">
+        <v>109</v>
+      </c>
+      <c r="H210" t="s">
+        <v>110</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L210" t="s">
+        <v>295</v>
+      </c>
+      <c r="M210" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>105</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="I211" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
         <v>33</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G212" t="s">
         <v>311</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H212" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B208" t="s">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D211" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E211" t="s">
-        <v>195</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G211" t="s">
-        <v>141</v>
-      </c>
-      <c r="H211" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B212" t="s">
-        <v>56</v>
-      </c>
-      <c r="C212" t="s">
-        <v>220</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="F212" s="2"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D213" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E213" t="s">
-        <v>196</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G213" t="s">
-        <v>142</v>
-      </c>
-      <c r="H213" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>58</v>
       </c>
-      <c r="D214" s="2"/>
-      <c r="F214" s="2"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B216" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D216" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E216" t="s">
+        <v>195</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G216" t="s">
+        <v>141</v>
+      </c>
+      <c r="H216" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D218" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D218" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E218" t="s">
+        <v>196</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G218" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="H218" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D219" t="s">
-        <v>105</v>
-      </c>
-      <c r="F219" t="s">
-        <v>210</v>
-      </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>58</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D223" t="s">
+        <v>33</v>
+      </c>
+      <c r="G223" t="s">
+        <v>205</v>
+      </c>
+      <c r="H223" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D224" t="s">
+        <v>105</v>
+      </c>
+      <c r="F224" t="s">
+        <v>210</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4514,11 +4653,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A20:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4543,7 +4682,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4719,13 +4858,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -4737,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4752,10 +4891,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4767,16 +4906,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>196</v>
       </c>
@@ -4785,13 +4924,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>196</v>
       </c>
@@ -4800,13 +4939,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>196</v>
       </c>
@@ -4815,13 +4954,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>207</v>
       </c>
@@ -4830,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -4845,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -4860,13 +4999,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -4875,13 +5014,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>207</v>
       </c>
@@ -4890,13 +5029,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -4905,13 +5044,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -4920,13 +5059,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="E26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -4935,13 +5077,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -4950,13 +5095,16 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="E28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>207</v>
       </c>
@@ -4965,13 +5113,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+      <c r="E29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -4980,13 +5131,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="E30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -4995,271 +5149,364 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>207</v>
       </c>
       <c r="B32" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"16"</f>
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"17"</f>
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"18"</f>
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>286</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B40" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>287</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B41" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B42" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B43" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>250</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B44" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D44" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B45" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>324</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>325</v>
-      </c>
-      <c r="D40" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>327</v>
-      </c>
-      <c r="D41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>337</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>337</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>337</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>340</v>
-      </c>
-      <c r="D44" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>338</v>
-      </c>
-      <c r="D45" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>368</v>
       </c>
       <c r="B46" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>162</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D52" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -5273,25 +5520,25 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
-      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="9"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="9"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="9"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="9"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
@@ -5370,33 +5617,28 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108" s="9"/>
       <c r="C108" s="9"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.35">
@@ -5420,7 +5662,6 @@
       <c r="C113" s="9"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B114" s="9"/>
       <c r="C114" s="9"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.35">
@@ -5473,53 +5714,59 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139" s="9"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142" s="9"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
@@ -5545,6 +5792,24 @@
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5702,8 +5967,8 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6448,7 +6713,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -6459,7 +6724,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -6492,7 +6757,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s">
         <v>144</v>
@@ -6503,7 +6768,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s">
         <v>144</v>
@@ -6525,7 +6790,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -6536,7 +6801,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -6595,52 +6860,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>475</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">

--- a/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
+++ b/app/config/tables/MADTRIAL_INC/Forms/MADTRIAL_INC/MADTRIAL_INC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F6271-5A4F-4747-99AC-39743E9A3ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CCCC77-66EB-4609-9D1A-D70533189496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,13 +1491,13 @@
     <t>(data('ID')&gt;999999  &amp;&amp; data('ID')&lt;10000000) || data('BAIRRO') == 77</t>
   </si>
   <si>
-    <t>data('REGIDC') &gt; 10000000 &amp;&amp; data('REGIDC') &lt; 170000000 || data('BAIRRO') != 77</t>
-  </si>
-  <si>
     <t>Deve ter 8 dígitos:</t>
   </si>
   <si>
     <t>Must be 8 digits long:</t>
+  </si>
+  <si>
+    <t>data('REGIDC') &gt; 10000000 &amp;&amp; data('REGIDC') &lt; 1000000000 || data('BAIRRO') != 77</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2804,13 +2804,13 @@
         <v>388</v>
       </c>
       <c r="K56" t="s">
+        <v>483</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="s">
         <v>481</v>
-      </c>
-      <c r="L56" t="s">
-        <v>483</v>
-      </c>
-      <c r="M56" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.35">
